--- a/Sprints/Buchberger.xlsx
+++ b/Sprints/Buchberger.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GB B460M Aorus Pro\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\BooklessDocs\Sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F1FF83-87BE-4F77-82C9-3C7F774F35F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E929BE-1BBF-421D-B9B6-D0F7D8E8C1E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{86214E96-66BA-481E-AE89-B5FD40226654}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="4" xr2:uid="{86214E96-66BA-481E-AE89-B5FD40226654}"/>
   </bookViews>
   <sheets>
     <sheet name="Einleitung" sheetId="2" r:id="rId1"/>
-    <sheet name="Sprint3" sheetId="1" r:id="rId2"/>
-    <sheet name="Sprint4" sheetId="3" r:id="rId3"/>
-    <sheet name="Sprint5" sheetId="4" r:id="rId4"/>
-    <sheet name="Sprint6" sheetId="5" r:id="rId5"/>
-    <sheet name="Sprint7" sheetId="6" r:id="rId6"/>
-    <sheet name="Sprint8" sheetId="7" r:id="rId7"/>
-    <sheet name="Sprint9" sheetId="8" r:id="rId8"/>
-    <sheet name="Sprint10" sheetId="9" r:id="rId9"/>
-    <sheet name="Sprint11" sheetId="10" r:id="rId10"/>
-    <sheet name="Tabelle9" sheetId="11" r:id="rId11"/>
+    <sheet name="Sprint1&amp;2" sheetId="11" r:id="rId2"/>
+    <sheet name="Sprint3" sheetId="1" r:id="rId3"/>
+    <sheet name="Sprint4" sheetId="3" r:id="rId4"/>
+    <sheet name="Sprint5" sheetId="4" r:id="rId5"/>
+    <sheet name="Sprint6" sheetId="5" r:id="rId6"/>
+    <sheet name="Sprint7" sheetId="6" r:id="rId7"/>
+    <sheet name="Sprint8" sheetId="7" r:id="rId8"/>
+    <sheet name="Sprint9" sheetId="8" r:id="rId9"/>
+    <sheet name="Sprint10" sheetId="9" r:id="rId10"/>
+    <sheet name="Sprint11" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="148">
   <si>
     <t>Todo Stuff</t>
   </si>
@@ -112,9 +112,6 @@
     <t>Sprint Einteilung</t>
   </si>
   <si>
-    <t>By Buchfrei</t>
-  </si>
-  <si>
     <t>Hierbei handelt es sich um die Sprint-Plannung für das Projekt Bookless</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>Besteht aus  Robert Freiseisen Christopher Buchberger, Egger Sebastian und Aigner Elias</t>
   </si>
   <si>
-    <t>Bookless</t>
-  </si>
-  <si>
     <t>Dashboard Layout</t>
   </si>
   <si>
@@ -353,13 +347,145 @@
   </si>
   <si>
     <t>Creating mock data for offers- creating offer table, chaning pdf service to inititalize all the data thats given into it, populating the data inside the pdf with the data. Change diffrent parts of the pdf  wheters it's an company or an private customer. creating big jsons to help filling data into it, due to the 2 types of customers company and private , they have diffrent fields.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ui Changes </t>
+  </si>
+  <si>
+    <t>Changed a lot of Ui elements due to some changes in the data structure of the Order data</t>
+  </si>
+  <si>
+    <t>Fix the Customer NULL Bug</t>
+  </si>
+  <si>
+    <t>WP4</t>
+  </si>
+  <si>
+    <t>Fixed the null bug it was due to some fields that were not inside a private customer object, i need to make them editable inside the private customer data object.</t>
+  </si>
+  <si>
+    <t>Fix Delete Bug</t>
+  </si>
+  <si>
+    <t>I have no idea where the problem is…</t>
+  </si>
+  <si>
+    <t>The datasource only had the current page so when we set it as new data we cut everything that is not on the current page.</t>
+  </si>
+  <si>
+    <t>After chaning the customer data and some rework of the pdf generator we now can create a private customer order pdf</t>
+  </si>
+  <si>
+    <t>Wp1</t>
+  </si>
+  <si>
+    <t>Changed the private customer input mask</t>
+  </si>
+  <si>
+    <t>Transformation System Idea</t>
+  </si>
+  <si>
+    <t>Transformation Dialog</t>
+  </si>
+  <si>
+    <t>Transformation Offer --&gt; Order</t>
+  </si>
+  <si>
+    <t>Offer Data Add Delete Bugs</t>
+  </si>
+  <si>
+    <t>Wp2</t>
+  </si>
+  <si>
+    <t>Wp4</t>
+  </si>
+  <si>
+    <t>Well, we need a system that can use a huge json and create a differnt pdfData object out of it</t>
+  </si>
+  <si>
+    <t>Like previously planned thats gonna be the way</t>
+  </si>
+  <si>
+    <t>Im not sure why but using Mat-dialog is one of the worst things to do in angular, because you will always have a lot of trouble just creating it</t>
+  </si>
+  <si>
+    <t>After even more troubles the Dialog is kind of finished need some more css styling, but firstly the Transformation function is important</t>
+  </si>
+  <si>
+    <t>After Debugging a lot i was able to fix the delete bug, but some weird stuff still can happen, not sure why but sometimes a row gets now added double…</t>
+  </si>
+  <si>
+    <t>Fix it in some weird cases, it was possible that the filterd list contained the entry twice, not sure why but i had to change the whole add system</t>
+  </si>
+  <si>
+    <t>Offer List css styling</t>
+  </si>
+  <si>
+    <t>Wp5</t>
+  </si>
+  <si>
+    <t>Had to reworks eggers last sprint Issue 64 due to a not that great looking user experience.</t>
+  </si>
+  <si>
+    <t>Change Transformation System</t>
+  </si>
+  <si>
+    <t>Fix electron</t>
+  </si>
+  <si>
+    <t>Me and Egger were able to find a solution to the Electron build error somehow the main.js was deleted and the dist folder were not build again.</t>
+  </si>
+  <si>
+    <t>Wp6</t>
+  </si>
+  <si>
+    <t>Changed to a  single entry point system</t>
+  </si>
+  <si>
+    <t>IOfferData rework</t>
+  </si>
+  <si>
+    <t>After some problems with the services the rework is finished.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buchberger </t>
+  </si>
+  <si>
+    <t>Arbeitsstunden</t>
+  </si>
+  <si>
+    <t>Reworked the Excel sheets especially the sprint sheet (this one) and the sprint meeting one.</t>
+  </si>
+  <si>
+    <t>Found bugs with the routing data fixed those and styled offer data component a bit more</t>
+  </si>
+  <si>
+    <t>More css styling and some code rework</t>
+  </si>
+  <si>
+    <t>After checking the Issuses I dealt with in September/November/Dezember</t>
+  </si>
+  <si>
+    <t>I came to the conclusion that on minimum it took me 120 hours to do solve all the</t>
+  </si>
+  <si>
+    <t>probably more like 150 hours but the endresult should be a "I worked atleast XX hours"</t>
+  </si>
+  <si>
+    <t>on this project in 4th grade.</t>
+  </si>
+  <si>
+    <t>Publish the Project on GH</t>
+  </si>
+  <si>
+    <t>After watching some YT Videos and trying it, i was able to Puplish it under following URL https://codechrisb.github.io/bookless</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,8 +641,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,8 +747,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -811,17 +957,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -846,7 +981,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -939,9 +1074,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -961,10 +1093,34 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -974,6 +1130,15 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -983,6 +1148,36 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1078,54 +1273,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1157,7 +1304,35 @@
     <cellStyle name="Text" xfId="17" xr:uid="{0E2C0082-AA92-45DC-B790-696D42FC9E50}"/>
     <cellStyle name="Warning" xfId="18" xr:uid="{7FF3DEE9-AC9E-4D30-B566-40AEB2F7987C}"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1676,70 +1851,70 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="39.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:16" ht="39" x14ac:dyDescent="0.3">
+      <c r="A1" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="79"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="103"/>
       <c r="I1" s="7"/>
-      <c r="J1" s="77" t="s">
+      <c r="J1" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="79"/>
-    </row>
-    <row r="2" spans="1:16" ht="39.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="80"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="103"/>
+    </row>
+    <row r="2" spans="1:16" ht="39" x14ac:dyDescent="0.3">
+      <c r="A2" s="104"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="106"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="82"/>
-    </row>
-    <row r="3" spans="1:16" ht="39.75" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="83"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="85"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="106"/>
+    </row>
+    <row r="3" spans="1:16" ht="39.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="107"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="109"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="82"/>
-    </row>
-    <row r="4" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J3" s="104"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="106"/>
+    </row>
+    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -1757,35 +1932,35 @@
       <c r="O4" s="9"/>
       <c r="P4" s="10"/>
     </row>
-    <row r="5" spans="1:16" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="113"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="13"/>
       <c r="I5" s="5"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="90" t="s">
+      <c r="K5" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="91"/>
-      <c r="M5" s="92"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="116"/>
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
       <c r="P5" s="13"/>
     </row>
-    <row r="6" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="94"/>
+      <c r="D6" s="118"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -1799,7 +1974,7 @@
       <c r="O6" s="33"/>
       <c r="P6" s="13"/>
     </row>
-    <row r="7" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1810,36 +1985,36 @@
       <c r="H7" s="13"/>
       <c r="I7" s="5"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="73"/>
+      <c r="K7" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="97"/>
       <c r="P7" s="13"/>
     </row>
-    <row r="8" spans="1:16" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="68"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="92"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="13"/>
       <c r="I8" s="5"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="76"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="100"/>
       <c r="P8" s="13"/>
     </row>
-    <row r="9" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1850,23 +2025,23 @@
       <c r="H9" s="13"/>
       <c r="I9" s="5"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="97"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="121"/>
       <c r="P9" s="13"/>
     </row>
-    <row r="10" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
-      <c r="B10" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
+      <c r="B10" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
       <c r="H10" s="14"/>
       <c r="I10" s="15"/>
       <c r="J10" s="11"/>
@@ -1877,27 +2052,27 @@
       <c r="O10" s="33"/>
       <c r="P10" s="13"/>
     </row>
-    <row r="11" spans="1:16" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="79"/>
       <c r="H11" s="14"/>
       <c r="I11" s="15"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="66" t="s">
+      <c r="K11" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="67"/>
-      <c r="M11" s="68"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="92"/>
       <c r="N11" s="33"/>
       <c r="O11" s="33"/>
       <c r="P11" s="13"/>
     </row>
-    <row r="12" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -1915,12 +2090,12 @@
       <c r="O12" s="33"/>
       <c r="P12" s="13"/>
     </row>
-    <row r="13" spans="1:16" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="70"/>
+      <c r="C13" s="94"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -1928,16 +2103,16 @@
       <c r="H13" s="17"/>
       <c r="I13" s="18"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="71" t="s">
+      <c r="K13" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="73"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="97"/>
       <c r="P13" s="13"/>
     </row>
-    <row r="14" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -1948,23 +2123,23 @@
       <c r="H14" s="17"/>
       <c r="I14" s="18"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="76"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="100"/>
       <c r="P14" s="13"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
-      <c r="B15" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="62"/>
+      <c r="B15" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="73"/>
       <c r="H15" s="21"/>
       <c r="I15" s="22"/>
       <c r="J15" s="11"/>
@@ -1977,14 +2152,14 @@
       <c r="O15" s="20"/>
       <c r="P15" s="13"/>
     </row>
-    <row r="16" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="105"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="76"/>
       <c r="H16" s="21"/>
       <c r="I16" s="22"/>
       <c r="J16" s="11"/>
@@ -1997,14 +2172,14 @@
       <c r="O16" s="25"/>
       <c r="P16" s="13"/>
     </row>
-    <row r="17" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="105"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="76"/>
       <c r="H17" s="29"/>
       <c r="I17" s="30"/>
       <c r="J17" s="26"/>
@@ -2015,14 +2190,14 @@
       <c r="O17" s="27"/>
       <c r="P17" s="28"/>
     </row>
-    <row r="18" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
-      <c r="B18" s="103"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="105"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="76"/>
       <c r="H18" s="21"/>
       <c r="I18" s="22"/>
       <c r="J18" s="5"/>
@@ -2033,14 +2208,14 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
-      <c r="B19" s="103"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="105"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="76"/>
       <c r="H19" s="21"/>
       <c r="I19" s="22"/>
       <c r="J19" s="8"/>
@@ -2051,63 +2226,66 @@
       <c r="O19" s="9"/>
       <c r="P19" s="10"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
-      <c r="B20" s="103"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="105"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="76"/>
       <c r="H20" s="21"/>
       <c r="I20" s="22"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
       <c r="P20" s="13"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="105"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="76"/>
       <c r="H21" s="21"/>
       <c r="I21" s="22"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
       <c r="P21" s="13"/>
     </row>
-    <row r="22" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:16" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="65"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="79"/>
       <c r="H22" s="21"/>
       <c r="I22" s="22"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="98" t="s">
-        <v>29</v>
-      </c>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99"/>
+      <c r="J22" s="88">
+        <f>SUM(Sprint3!J3)+SUM(Sprint4!J3)+SUM(Sprint5!J3)+SUM(Sprint6!J3)+SUM(Sprint7!J3)+SUM(Sprint8!J3)+SUM(Sprint9!J3)+SUM(Sprint10!J3)+SUM(Sprint11!J3)+'Sprint1&amp;2'!J3</f>
+        <v>261</v>
+      </c>
+      <c r="K22" s="89"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
       <c r="P22" s="13"/>
     </row>
-    <row r="23" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
@@ -2117,37 +2295,37 @@
       <c r="G23" s="32"/>
       <c r="H23" s="21"/>
       <c r="I23" s="22"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
       <c r="P23" s="13"/>
     </row>
-    <row r="24" spans="1:16" ht="18.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
-      <c r="B24" s="112" t="s">
+      <c r="B24" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="113"/>
+      <c r="C24" s="87"/>
       <c r="D24" s="31"/>
       <c r="E24" s="31"/>
       <c r="F24" s="31"/>
       <c r="G24" s="31"/>
       <c r="H24" s="21"/>
       <c r="I24" s="22"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="100" t="s">
-        <v>25</v>
-      </c>
-      <c r="N24" s="101"/>
-      <c r="O24" s="101"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
       <c r="P24" s="13"/>
     </row>
-    <row r="25" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -2157,53 +2335,53 @@
       <c r="G25" s="31"/>
       <c r="H25" s="21"/>
       <c r="I25" s="22"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
       <c r="P25" s="13"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
-      <c r="B26" s="106" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="108"/>
+      <c r="B26" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="82"/>
       <c r="H26" s="21"/>
       <c r="I26" s="22"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="102"/>
-      <c r="N26" s="102"/>
-      <c r="O26" s="102"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70"/>
       <c r="P26" s="13"/>
     </row>
-    <row r="27" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11"/>
-      <c r="B27" s="109"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="111"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="85"/>
       <c r="H27" s="21"/>
       <c r="I27" s="22"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
       <c r="P27" s="13"/>
     </row>
-    <row r="28" spans="1:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="26"/>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
@@ -2222,13 +2400,7 @@
       <c r="P28" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="M22:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O26"/>
-    <mergeCell ref="B15:G22"/>
-    <mergeCell ref="B26:G27"/>
-    <mergeCell ref="B24:C24"/>
+  <mergeCells count="18">
     <mergeCell ref="B10:G11"/>
     <mergeCell ref="K11:M11"/>
     <mergeCell ref="B13:C13"/>
@@ -2240,6 +2412,13 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="K7:O9"/>
     <mergeCell ref="B8:D8"/>
+    <mergeCell ref="M22:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O26"/>
+    <mergeCell ref="B15:G22"/>
+    <mergeCell ref="B26:G27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="J22:L25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K16" r:id="rId1" xr:uid="{56696194-2AF1-44D1-8DDD-744124A45C2E}"/>
@@ -2249,50 +2428,396 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E76A85-FF30-4348-B508-7E9530528376}">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="36.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="122" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+    </row>
+    <row r="2" spans="1:12" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+    </row>
+    <row r="3" spans="1:12" ht="54.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="42"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="123">
+        <f>SUM(D2:D100)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+    </row>
+    <row r="4" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="42"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="36"/>
+    </row>
+    <row r="5" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="42"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36"/>
+    </row>
+    <row r="6" spans="1:12" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="42"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="42"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" spans="1:12" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="43"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
+    </row>
+    <row r="9" spans="1:12" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="42"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="36"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="42"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="36"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="44"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="36"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="42"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="36"/>
+    </row>
+    <row r="13" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="42"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="36"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+    </row>
+    <row r="18" spans="1:9" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="36"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="36"/>
+    </row>
+    <row r="20" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="36"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J1:L2"/>
+    <mergeCell ref="J3:L3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C2:I100">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2838DF9-5CA2-4CAE-85EF-5548BACB4DCD}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF5214B-4BD1-4EF1-B65E-ECD71D130FA7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF5214B-4BD1-4EF1-B65E-ECD71D130FA7}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D0D7801-C116-4703-AC59-E9820C272D02}">
   <dimension ref="A1:L180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.86328125" customWidth="1"/>
-    <col min="3" max="3" width="11.9296875" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.265625" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="36.796875" customWidth="1"/>
-    <col min="15" max="15" width="26.265625" customWidth="1"/>
+    <col min="9" max="9" width="36.77734375" customWidth="1"/>
+    <col min="15" max="15" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
@@ -2320,17 +2845,17 @@
       <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="114" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-    </row>
-    <row r="2" spans="1:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="55" t="s">
+      <c r="J1" s="122" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+    </row>
+    <row r="2" spans="1:12" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="54" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="37">
@@ -2340,7 +2865,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F2" s="35">
         <v>4</v>
@@ -2351,18 +2876,18 @@
       <c r="H2" s="35">
         <v>2</v>
       </c>
-      <c r="I2" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-    </row>
-    <row r="3" spans="1:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="55" t="s">
+      <c r="I2" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+    </row>
+    <row r="3" spans="1:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="54" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="37">
@@ -2372,7 +2897,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F3" s="35">
         <v>6</v>
@@ -2383,21 +2908,21 @@
       <c r="H3" s="35">
         <v>0</v>
       </c>
-      <c r="I3" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="115">
+      <c r="I3" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="123">
         <f>SUM(D2:D100)</f>
-        <v>79</v>
-      </c>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-    </row>
-    <row r="4" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+    </row>
+    <row r="4" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="63" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="37">
@@ -2407,7 +2932,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F4" s="35">
         <v>2</v>
@@ -2418,45 +2943,45 @@
       <c r="H4" s="35">
         <v>0</v>
       </c>
-      <c r="I4" s="51" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="55" t="s">
+      <c r="I4" s="50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="54" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="37">
         <v>44181</v>
       </c>
       <c r="D5" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="35" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="35">
         <v>0</v>
       </c>
-      <c r="I5" s="51" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="35.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="55" t="s">
+      <c r="I5" s="50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="54" t="s">
         <v>34</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>36</v>
       </c>
       <c r="C6" s="37">
         <v>44181</v>
@@ -2465,7 +2990,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F6" s="35">
         <v>5</v>
@@ -2476,16 +3001,16 @@
       <c r="H6" s="35">
         <v>2</v>
       </c>
-      <c r="I6" s="51" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="43.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="56" t="s">
+      <c r="I6" s="50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="54" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>37</v>
       </c>
       <c r="C7" s="37">
         <v>44181</v>
@@ -2494,7 +3019,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F7" s="35">
         <v>5</v>
@@ -2505,16 +3030,16 @@
       <c r="H7" s="35">
         <v>0</v>
       </c>
-      <c r="I7" s="51" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="82.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="55" t="s">
+      <c r="I7" s="50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="54" t="s">
         <v>38</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>36</v>
       </c>
       <c r="C8" s="37">
         <v>44181</v>
@@ -2523,7 +3048,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F8" s="35">
         <v>2</v>
@@ -2534,45 +3059,45 @@
       <c r="H8" s="35">
         <v>0</v>
       </c>
-      <c r="I8" s="51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="55.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="55" t="s">
-        <v>39</v>
+      <c r="I8" s="50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>37</v>
       </c>
       <c r="C9" s="37">
         <v>44181</v>
       </c>
       <c r="D9" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F9" s="35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" s="35">
         <v>1</v>
       </c>
-      <c r="I9" s="51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>55</v>
+      <c r="I9" s="50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>53</v>
       </c>
       <c r="C10" s="37">
         <v>44182</v>
@@ -2592,16 +3117,16 @@
       <c r="H10" s="35">
         <v>1</v>
       </c>
-      <c r="I10" s="51" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="55" t="s">
-        <v>60</v>
+      <c r="I10" s="50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>58</v>
       </c>
       <c r="C11" s="37">
         <v>44182</v>
@@ -2621,16 +3146,16 @@
       <c r="H11" s="35">
         <v>0</v>
       </c>
-      <c r="I11" s="51" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="57" x14ac:dyDescent="0.45">
-      <c r="A12" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>62</v>
+      <c r="I11" s="50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>60</v>
       </c>
       <c r="C12" s="37">
         <v>44183</v>
@@ -2639,7 +3164,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F12" s="35">
         <v>10</v>
@@ -2650,16 +3175,16 @@
       <c r="H12" s="35">
         <v>5</v>
       </c>
-      <c r="I12" s="51" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="56" t="s">
-        <v>72</v>
+      <c r="I12" s="50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>70</v>
       </c>
       <c r="C13" s="37">
         <v>44183</v>
@@ -2668,7 +3193,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" s="35">
         <v>2</v>
@@ -2679,16 +3204,16 @@
       <c r="H13" s="35">
         <v>0</v>
       </c>
-      <c r="I13" s="51" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="48" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>75</v>
+      <c r="I13" s="50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="48" customFormat="1" ht="58.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>73</v>
       </c>
       <c r="C14" s="47">
         <v>44183</v>
@@ -2697,7 +3222,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F14" s="36">
         <v>2</v>
@@ -2708,45 +3233,45 @@
       <c r="H14" s="36">
         <v>0</v>
       </c>
-      <c r="I14" s="51" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="43.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>81</v>
+      <c r="I14" s="50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>79</v>
       </c>
       <c r="C15" s="37">
         <v>44184</v>
       </c>
       <c r="D15" s="35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F15" s="35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" s="35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" s="35">
         <v>0</v>
       </c>
-      <c r="I15" s="51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="36.85" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>89</v>
+      <c r="I15" s="50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="36.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>87</v>
       </c>
       <c r="C16" s="37">
         <v>44185</v>
@@ -2755,7 +3280,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F16" s="35">
         <v>2</v>
@@ -2766,16 +3291,16 @@
       <c r="H16" s="35">
         <v>0</v>
       </c>
-      <c r="I16" s="51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="55.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="59" t="s">
-        <v>99</v>
+      <c r="I16" s="50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>97</v>
       </c>
       <c r="C17" s="37">
         <v>44187</v>
@@ -2784,7 +3309,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F17" s="35">
         <v>2</v>
@@ -2795,11 +3320,11 @@
       <c r="H17" s="35">
         <v>0</v>
       </c>
-      <c r="I17" s="52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I17" s="51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
       <c r="B18" s="38"/>
       <c r="C18" s="37">
@@ -2809,7 +3334,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F18" s="35">
         <v>2</v>
@@ -2820,11 +3345,11 @@
       <c r="H18" s="35">
         <v>0</v>
       </c>
-      <c r="I18" s="51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="I18" s="50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
       <c r="C19" s="37">
@@ -2834,7 +3359,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F19" s="35">
         <v>2</v>
@@ -2845,11 +3370,11 @@
       <c r="H19" s="35">
         <v>0</v>
       </c>
-      <c r="I19" s="51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I19" s="50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="38"/>
       <c r="B20" s="38"/>
       <c r="C20" s="46">
@@ -2859,7 +3384,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F20" s="35">
         <v>2</v>
@@ -2870,11 +3395,11 @@
       <c r="H20" s="35">
         <v>0</v>
       </c>
-      <c r="I20" s="51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+      <c r="I20" s="50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
       <c r="B21" s="38"/>
       <c r="C21" s="46">
@@ -2884,7 +3409,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F21" s="35">
         <v>15</v>
@@ -2895,11 +3420,11 @@
       <c r="H21" s="35">
         <v>13</v>
       </c>
-      <c r="I21" s="51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="57" x14ac:dyDescent="0.45">
+      <c r="I21" s="50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="38"/>
       <c r="B22" s="38"/>
       <c r="C22" s="46">
@@ -2909,7 +3434,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F22" s="35">
         <v>15</v>
@@ -2920,11 +3445,11 @@
       <c r="H22" s="35">
         <v>11</v>
       </c>
-      <c r="I22" s="51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I22" s="50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="38"/>
       <c r="B23" s="38"/>
       <c r="C23" s="46">
@@ -2934,7 +3459,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F23" s="35">
         <v>15</v>
@@ -2945,11 +3470,11 @@
       <c r="H23" s="35">
         <v>0</v>
       </c>
-      <c r="I23" s="51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I23" s="50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="38"/>
       <c r="B24" s="38"/>
       <c r="C24" s="46">
@@ -2959,7 +3484,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F24" s="35">
         <v>2</v>
@@ -2970,11 +3495,11 @@
       <c r="H24" s="35">
         <v>0</v>
       </c>
-      <c r="I24" s="51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I24" s="50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="70.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="38"/>
       <c r="B25" s="38"/>
       <c r="C25" s="46">
@@ -2984,7 +3509,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F25" s="35">
         <v>15</v>
@@ -2995,11 +3520,11 @@
       <c r="H25" s="35">
         <v>14</v>
       </c>
-      <c r="I25" s="51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="51.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I25" s="50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="51.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="38"/>
       <c r="B26" s="38"/>
       <c r="C26" s="46">
@@ -3009,7 +3534,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F26" s="35">
         <v>15</v>
@@ -3020,11 +3545,11 @@
       <c r="H26" s="35">
         <v>13</v>
       </c>
-      <c r="I26" s="54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I26" s="53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="38"/>
       <c r="B27" s="38"/>
       <c r="C27" s="46">
@@ -3034,7 +3559,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F27" s="35">
         <v>15</v>
@@ -3045,11 +3570,11 @@
       <c r="H27" s="35">
         <v>12</v>
       </c>
-      <c r="I27" s="54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="82.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I27" s="53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="38"/>
       <c r="B28" s="38"/>
       <c r="C28" s="46">
@@ -3059,7 +3584,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F28" s="35">
         <v>3</v>
@@ -3070,19 +3595,19 @@
       <c r="H28" s="35">
         <v>7</v>
       </c>
-      <c r="I28" s="54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="48" customFormat="1" ht="115.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="57">
+      <c r="I28" s="53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="48" customFormat="1" ht="115.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="56">
         <v>44191</v>
       </c>
       <c r="D29" s="36">
         <v>2</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F29" s="36">
         <v>10</v>
@@ -3091,22 +3616,22 @@
         <v>7</v>
       </c>
       <c r="H29" s="36"/>
-      <c r="I29" s="54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="147.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I29" s="53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="147.44999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D30" s="35">
         <v>3</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F30" s="35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G30" s="35">
         <v>10</v>
@@ -3114,11 +3639,11 @@
       <c r="H30" s="35">
         <v>2</v>
       </c>
-      <c r="I30" s="54" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I30" s="53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="46">
         <v>44192</v>
       </c>
@@ -3126,7 +3651,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F31" s="35">
         <v>15</v>
@@ -3137,34 +3662,34 @@
       <c r="H31" s="35">
         <v>11</v>
       </c>
-      <c r="I31" s="54" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="78.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I31" s="53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="78.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D32" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F32" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" s="35">
         <v>0</v>
       </c>
-      <c r="I32" s="54" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" ht="75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I32" s="53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="46">
         <v>44192</v>
       </c>
@@ -3172,7 +3697,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F33" s="35">
         <v>2</v>
@@ -3183,19 +3708,19 @@
       <c r="H33" s="35">
         <v>0</v>
       </c>
-      <c r="I33" s="54" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" ht="160.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I33" s="53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D34" s="35">
         <v>3</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F34" s="35">
         <v>15</v>
@@ -3206,11 +3731,11 @@
       <c r="H34" s="35">
         <v>5</v>
       </c>
-      <c r="I34" s="54" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" ht="90.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I34" s="53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" ht="90.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="46">
         <v>44193</v>
       </c>
@@ -3218,7 +3743,7 @@
         <v>3</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F35" s="35">
         <v>12</v>
@@ -3229,11 +3754,11 @@
       <c r="H35" s="35">
         <v>5</v>
       </c>
-      <c r="I35" s="54" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" ht="55.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I35" s="53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="46">
         <v>44193</v>
       </c>
@@ -3241,7 +3766,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F36" s="35">
         <v>15</v>
@@ -3252,11 +3777,11 @@
       <c r="H36" s="35">
         <v>3</v>
       </c>
-      <c r="I36" s="54" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I36" s="53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="46">
         <v>44193</v>
       </c>
@@ -3264,7 +3789,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F37" s="35">
         <v>1</v>
@@ -3275,57 +3800,57 @@
       <c r="H37" s="35">
         <v>0</v>
       </c>
-      <c r="I37" s="54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9" ht="66.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I37" s="53" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" ht="66.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="46">
         <v>44193</v>
       </c>
       <c r="D38" s="35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F38" s="35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G38" s="35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H38" s="35">
         <v>0</v>
       </c>
-      <c r="I38" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="I38" s="53" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C39" s="46">
         <v>44194</v>
       </c>
       <c r="D39" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F39" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" s="35">
         <v>0</v>
       </c>
-      <c r="I39" s="54" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="3:9" ht="87" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I39" s="53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="46">
         <v>44194</v>
       </c>
@@ -3333,7 +3858,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F40" s="35">
         <v>15</v>
@@ -3344,11 +3869,11 @@
       <c r="H40" s="35">
         <v>2</v>
       </c>
-      <c r="I40" s="54" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="3:9" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="I40" s="53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C41" s="46">
         <v>44195</v>
       </c>
@@ -3356,7 +3881,7 @@
         <v>2</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F41" s="35">
         <v>16</v>
@@ -3367,19 +3892,19 @@
       <c r="H41" s="35">
         <v>0</v>
       </c>
-      <c r="I41" s="54" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="I41" s="53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C42" s="46">
         <v>44195</v>
       </c>
       <c r="D42" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F42" s="35">
         <v>15</v>
@@ -3390,423 +3915,423 @@
       <c r="H42" s="35">
         <v>0</v>
       </c>
-      <c r="I42" s="53" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="I43" s="53"/>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="I44" s="53"/>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="I45" s="53"/>
-    </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="I46" s="53"/>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="I47" s="53"/>
-    </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="I48" s="53"/>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I49" s="53"/>
-    </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I50" s="53"/>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I51" s="53"/>
-    </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I52" s="53"/>
-    </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I53" s="53"/>
-    </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I54" s="53"/>
-    </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I55" s="53"/>
-    </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I56" s="53"/>
-    </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I57" s="53"/>
-    </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I58" s="53"/>
-    </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I59" s="53"/>
-    </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I60" s="53"/>
-    </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I61" s="53"/>
-    </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I62" s="53"/>
-    </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I63" s="53"/>
-    </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I64" s="53"/>
-    </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I65" s="53"/>
-    </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I66" s="53"/>
-    </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I67" s="53"/>
-    </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I68" s="53"/>
-    </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I69" s="53"/>
-    </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I70" s="53"/>
-    </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I71" s="53"/>
-    </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I72" s="53"/>
-    </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I73" s="53"/>
-    </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I74" s="53"/>
-    </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I75" s="53"/>
-    </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I76" s="53"/>
-    </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I77" s="53"/>
-    </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I78" s="53"/>
-    </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I79" s="53"/>
-    </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I80" s="53"/>
-    </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I81" s="53"/>
-    </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I82" s="53"/>
-    </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I83" s="53"/>
-    </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I84" s="53"/>
-    </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I85" s="53"/>
-    </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I86" s="53"/>
-    </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I87" s="53"/>
-    </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I88" s="53"/>
-    </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I89" s="53"/>
-    </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I90" s="53"/>
-    </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I91" s="53"/>
-    </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I92" s="53"/>
-    </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I93" s="53"/>
-    </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I94" s="53"/>
-    </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I95" s="53"/>
-    </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I96" s="53"/>
-    </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I97" s="53"/>
-    </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I98" s="53"/>
-    </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I99" s="53"/>
-    </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I100" s="53"/>
-    </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I101" s="53"/>
-    </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I102" s="53"/>
-    </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I103" s="53"/>
-    </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I104" s="53"/>
-    </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I105" s="53"/>
-    </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I106" s="53"/>
-    </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I107" s="53"/>
-    </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I108" s="53"/>
-    </row>
-    <row r="109" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I109" s="53"/>
-    </row>
-    <row r="110" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I110" s="53"/>
-    </row>
-    <row r="111" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I111" s="53"/>
-    </row>
-    <row r="112" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I112" s="53"/>
-    </row>
-    <row r="113" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I113" s="53"/>
-    </row>
-    <row r="114" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I114" s="53"/>
-    </row>
-    <row r="115" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I115" s="53"/>
-    </row>
-    <row r="116" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I116" s="53"/>
-    </row>
-    <row r="117" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I117" s="53"/>
-    </row>
-    <row r="118" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I118" s="53"/>
-    </row>
-    <row r="119" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I119" s="53"/>
-    </row>
-    <row r="120" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I120" s="53"/>
-    </row>
-    <row r="121" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I121" s="53"/>
-    </row>
-    <row r="122" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I122" s="53"/>
-    </row>
-    <row r="123" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I123" s="53"/>
-    </row>
-    <row r="124" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I124" s="53"/>
-    </row>
-    <row r="125" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I125" s="53"/>
-    </row>
-    <row r="126" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I126" s="53"/>
-    </row>
-    <row r="127" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I127" s="53"/>
-    </row>
-    <row r="128" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I128" s="53"/>
-    </row>
-    <row r="129" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I129" s="53"/>
-    </row>
-    <row r="130" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I130" s="53"/>
-    </row>
-    <row r="131" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I131" s="53"/>
-    </row>
-    <row r="132" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I132" s="53"/>
-    </row>
-    <row r="133" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I133" s="53"/>
-    </row>
-    <row r="134" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I134" s="53"/>
-    </row>
-    <row r="135" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I135" s="53"/>
-    </row>
-    <row r="136" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I136" s="53"/>
-    </row>
-    <row r="137" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I137" s="53"/>
-    </row>
-    <row r="138" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I138" s="53"/>
-    </row>
-    <row r="139" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I139" s="53"/>
-    </row>
-    <row r="140" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I140" s="53"/>
-    </row>
-    <row r="141" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I141" s="53"/>
-    </row>
-    <row r="142" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I142" s="53"/>
-    </row>
-    <row r="143" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I143" s="53"/>
-    </row>
-    <row r="144" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I144" s="53"/>
-    </row>
-    <row r="145" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I145" s="53"/>
-    </row>
-    <row r="146" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I146" s="53"/>
-    </row>
-    <row r="147" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I147" s="53"/>
-    </row>
-    <row r="148" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I148" s="53"/>
-    </row>
-    <row r="149" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I149" s="53"/>
-    </row>
-    <row r="150" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I150" s="53"/>
-    </row>
-    <row r="151" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I151" s="53"/>
-    </row>
-    <row r="152" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I152" s="53"/>
-    </row>
-    <row r="153" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I153" s="53"/>
-    </row>
-    <row r="154" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I154" s="53"/>
-    </row>
-    <row r="155" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I155" s="53"/>
-    </row>
-    <row r="156" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I156" s="53"/>
-    </row>
-    <row r="157" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I157" s="53"/>
-    </row>
-    <row r="158" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I158" s="53"/>
-    </row>
-    <row r="159" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I159" s="53"/>
-    </row>
-    <row r="160" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I160" s="53"/>
-    </row>
-    <row r="161" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I161" s="53"/>
-    </row>
-    <row r="162" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I162" s="53"/>
-    </row>
-    <row r="163" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I163" s="53"/>
-    </row>
-    <row r="164" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I164" s="53"/>
-    </row>
-    <row r="165" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I165" s="53"/>
-    </row>
-    <row r="166" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I166" s="53"/>
-    </row>
-    <row r="167" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I167" s="53"/>
-    </row>
-    <row r="168" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I168" s="53"/>
-    </row>
-    <row r="169" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I169" s="53"/>
-    </row>
-    <row r="170" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I170" s="53"/>
-    </row>
-    <row r="171" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I171" s="53"/>
-    </row>
-    <row r="172" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I172" s="53"/>
-    </row>
-    <row r="173" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I173" s="53"/>
-    </row>
-    <row r="174" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I174" s="53"/>
-    </row>
-    <row r="175" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I175" s="53"/>
-    </row>
-    <row r="176" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I176" s="53"/>
-    </row>
-    <row r="177" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I177" s="53"/>
-    </row>
-    <row r="178" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I178" s="53"/>
-    </row>
-    <row r="179" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I179" s="53"/>
-    </row>
-    <row r="180" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I180" s="53"/>
+      <c r="I42" s="52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I43" s="52"/>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I44" s="52"/>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I45" s="52"/>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I46" s="52"/>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I47" s="52"/>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="I48" s="52"/>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I49" s="52"/>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I50" s="52"/>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I51" s="52"/>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I52" s="52"/>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I53" s="52"/>
+    </row>
+    <row r="54" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I54" s="52"/>
+    </row>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I55" s="52"/>
+    </row>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I56" s="52"/>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I57" s="52"/>
+    </row>
+    <row r="58" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I58" s="52"/>
+    </row>
+    <row r="59" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I59" s="52"/>
+    </row>
+    <row r="60" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I60" s="52"/>
+    </row>
+    <row r="61" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I61" s="52"/>
+    </row>
+    <row r="62" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I62" s="52"/>
+    </row>
+    <row r="63" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I63" s="52"/>
+    </row>
+    <row r="64" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I64" s="52"/>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I65" s="52"/>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I66" s="52"/>
+    </row>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I67" s="52"/>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I68" s="52"/>
+    </row>
+    <row r="69" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I69" s="52"/>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I70" s="52"/>
+    </row>
+    <row r="71" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I71" s="52"/>
+    </row>
+    <row r="72" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I72" s="52"/>
+    </row>
+    <row r="73" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I73" s="52"/>
+    </row>
+    <row r="74" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I74" s="52"/>
+    </row>
+    <row r="75" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I75" s="52"/>
+    </row>
+    <row r="76" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I76" s="52"/>
+    </row>
+    <row r="77" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I77" s="52"/>
+    </row>
+    <row r="78" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I78" s="52"/>
+    </row>
+    <row r="79" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I79" s="52"/>
+    </row>
+    <row r="80" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I80" s="52"/>
+    </row>
+    <row r="81" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I81" s="52"/>
+    </row>
+    <row r="82" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I82" s="52"/>
+    </row>
+    <row r="83" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I83" s="52"/>
+    </row>
+    <row r="84" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I84" s="52"/>
+    </row>
+    <row r="85" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I85" s="52"/>
+    </row>
+    <row r="86" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I86" s="52"/>
+    </row>
+    <row r="87" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I87" s="52"/>
+    </row>
+    <row r="88" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I88" s="52"/>
+    </row>
+    <row r="89" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I89" s="52"/>
+    </row>
+    <row r="90" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I90" s="52"/>
+    </row>
+    <row r="91" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I91" s="52"/>
+    </row>
+    <row r="92" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I92" s="52"/>
+    </row>
+    <row r="93" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I93" s="52"/>
+    </row>
+    <row r="94" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I94" s="52"/>
+    </row>
+    <row r="95" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I95" s="52"/>
+    </row>
+    <row r="96" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I96" s="52"/>
+    </row>
+    <row r="97" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I97" s="52"/>
+    </row>
+    <row r="98" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I98" s="52"/>
+    </row>
+    <row r="99" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I99" s="52"/>
+    </row>
+    <row r="100" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I100" s="52"/>
+    </row>
+    <row r="101" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I101" s="52"/>
+    </row>
+    <row r="102" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I102" s="52"/>
+    </row>
+    <row r="103" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I103" s="52"/>
+    </row>
+    <row r="104" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I104" s="52"/>
+    </row>
+    <row r="105" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I105" s="52"/>
+    </row>
+    <row r="106" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I106" s="52"/>
+    </row>
+    <row r="107" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I107" s="52"/>
+    </row>
+    <row r="108" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I108" s="52"/>
+    </row>
+    <row r="109" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I109" s="52"/>
+    </row>
+    <row r="110" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I110" s="52"/>
+    </row>
+    <row r="111" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I111" s="52"/>
+    </row>
+    <row r="112" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I112" s="52"/>
+    </row>
+    <row r="113" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I113" s="52"/>
+    </row>
+    <row r="114" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I114" s="52"/>
+    </row>
+    <row r="115" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I115" s="52"/>
+    </row>
+    <row r="116" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I116" s="52"/>
+    </row>
+    <row r="117" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I117" s="52"/>
+    </row>
+    <row r="118" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I118" s="52"/>
+    </row>
+    <row r="119" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I119" s="52"/>
+    </row>
+    <row r="120" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I120" s="52"/>
+    </row>
+    <row r="121" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I121" s="52"/>
+    </row>
+    <row r="122" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I122" s="52"/>
+    </row>
+    <row r="123" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I123" s="52"/>
+    </row>
+    <row r="124" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I124" s="52"/>
+    </row>
+    <row r="125" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I125" s="52"/>
+    </row>
+    <row r="126" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I126" s="52"/>
+    </row>
+    <row r="127" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I127" s="52"/>
+    </row>
+    <row r="128" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I128" s="52"/>
+    </row>
+    <row r="129" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I129" s="52"/>
+    </row>
+    <row r="130" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I130" s="52"/>
+    </row>
+    <row r="131" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I131" s="52"/>
+    </row>
+    <row r="132" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I132" s="52"/>
+    </row>
+    <row r="133" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I133" s="52"/>
+    </row>
+    <row r="134" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I134" s="52"/>
+    </row>
+    <row r="135" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I135" s="52"/>
+    </row>
+    <row r="136" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I136" s="52"/>
+    </row>
+    <row r="137" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I137" s="52"/>
+    </row>
+    <row r="138" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I138" s="52"/>
+    </row>
+    <row r="139" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I139" s="52"/>
+    </row>
+    <row r="140" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I140" s="52"/>
+    </row>
+    <row r="141" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I141" s="52"/>
+    </row>
+    <row r="142" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I142" s="52"/>
+    </row>
+    <row r="143" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I143" s="52"/>
+    </row>
+    <row r="144" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I144" s="52"/>
+    </row>
+    <row r="145" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I145" s="52"/>
+    </row>
+    <row r="146" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I146" s="52"/>
+    </row>
+    <row r="147" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I147" s="52"/>
+    </row>
+    <row r="148" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I148" s="52"/>
+    </row>
+    <row r="149" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I149" s="52"/>
+    </row>
+    <row r="150" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I150" s="52"/>
+    </row>
+    <row r="151" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I151" s="52"/>
+    </row>
+    <row r="152" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I152" s="52"/>
+    </row>
+    <row r="153" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I153" s="52"/>
+    </row>
+    <row r="154" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I154" s="52"/>
+    </row>
+    <row r="155" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I155" s="52"/>
+    </row>
+    <row r="156" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I156" s="52"/>
+    </row>
+    <row r="157" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I157" s="52"/>
+    </row>
+    <row r="158" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I158" s="52"/>
+    </row>
+    <row r="159" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I159" s="52"/>
+    </row>
+    <row r="160" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I160" s="52"/>
+    </row>
+    <row r="161" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I161" s="52"/>
+    </row>
+    <row r="162" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I162" s="52"/>
+    </row>
+    <row r="163" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I163" s="52"/>
+    </row>
+    <row r="164" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I164" s="52"/>
+    </row>
+    <row r="165" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I165" s="52"/>
+    </row>
+    <row r="166" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I166" s="52"/>
+    </row>
+    <row r="167" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I167" s="52"/>
+    </row>
+    <row r="168" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I168" s="52"/>
+    </row>
+    <row r="169" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I169" s="52"/>
+    </row>
+    <row r="170" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I170" s="52"/>
+    </row>
+    <row r="171" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I171" s="52"/>
+    </row>
+    <row r="172" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I172" s="52"/>
+    </row>
+    <row r="173" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I173" s="52"/>
+    </row>
+    <row r="174" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I174" s="52"/>
+    </row>
+    <row r="175" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I175" s="52"/>
+    </row>
+    <row r="176" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I176" s="52"/>
+    </row>
+    <row r="177" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I177" s="52"/>
+    </row>
+    <row r="178" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I178" s="52"/>
+    </row>
+    <row r="179" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I179" s="52"/>
+    </row>
+    <row r="180" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I180" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3815,10 +4340,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C2:I100">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="19" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="2">
+    <cfRule type="expression" dxfId="18" priority="2">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3834,26 +4359,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF29A94-A702-4F39-936F-2F2BC5B0E2EE}">
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:XFD1048576"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.86328125" customWidth="1"/>
-    <col min="3" max="3" width="11.9296875" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.265625" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="36.796875" customWidth="1"/>
+    <col min="9" max="9" width="36.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -3881,110 +4406,232 @@
       <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="114" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-    </row>
-    <row r="2" spans="1:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="42"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-    </row>
-    <row r="3" spans="1:12" ht="54.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="42"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="115">
+      <c r="J1" s="122" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+    </row>
+    <row r="2" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="37">
+        <v>44203</v>
+      </c>
+      <c r="D2" s="35">
+        <v>4</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="35">
+        <v>4</v>
+      </c>
+      <c r="G2" s="35">
+        <v>4</v>
+      </c>
+      <c r="H2" s="35">
+        <v>0</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+    </row>
+    <row r="3" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="37">
+        <v>44204</v>
+      </c>
+      <c r="D3" s="35">
+        <v>3</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="35">
+        <v>1</v>
+      </c>
+      <c r="G3" s="35">
+        <v>7</v>
+      </c>
+      <c r="H3" s="35">
+        <v>5</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="123">
         <f>SUM(D2:D100)</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-    </row>
-    <row r="4" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="42"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36"/>
-    </row>
-    <row r="5" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+    </row>
+    <row r="4" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="37">
+        <v>44210</v>
+      </c>
+      <c r="D4" s="35">
+        <v>3</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="35">
+        <v>6</v>
+      </c>
+      <c r="G4" s="35">
+        <v>6</v>
+      </c>
+      <c r="H4" s="35">
+        <v>3</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42"/>
       <c r="B5" s="39"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
-    </row>
-    <row r="6" spans="1:12" ht="35.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="57">
+        <v>44211</v>
+      </c>
+      <c r="D5" s="58">
+        <v>3</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="58">
+        <v>6</v>
+      </c>
+      <c r="G5" s="58">
+        <v>6</v>
+      </c>
+      <c r="H5" s="58">
+        <v>0</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="42"/>
       <c r="B6" s="39"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
-    </row>
-    <row r="7" spans="1:12" ht="43.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="59">
+        <v>44211</v>
+      </c>
+      <c r="D6" s="60">
+        <v>3</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="60">
+        <v>3</v>
+      </c>
+      <c r="G6" s="60">
+        <v>8</v>
+      </c>
+      <c r="H6" s="60">
+        <v>1</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="42"/>
       <c r="B7" s="39"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36"/>
-    </row>
-    <row r="8" spans="1:12" ht="82.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C7" s="37">
+        <v>44212</v>
+      </c>
+      <c r="D7" s="35">
+        <v>2</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="35">
+        <v>8</v>
+      </c>
+      <c r="G7" s="35">
+        <v>8</v>
+      </c>
+      <c r="H7" s="35">
+        <v>0</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" s="39"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
-    </row>
-    <row r="9" spans="1:12" ht="55.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="37">
+        <v>44213</v>
+      </c>
+      <c r="D8" s="35">
+        <v>1</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="35">
+        <v>6</v>
+      </c>
+      <c r="G8" s="35">
+        <v>3</v>
+      </c>
+      <c r="H8" s="35">
+        <v>0</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="42"/>
       <c r="B9" s="39"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
+      <c r="C9" s="37">
+        <v>44214</v>
+      </c>
+      <c r="D9" s="35">
+        <v>2</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="35">
+        <v>6</v>
+      </c>
+      <c r="G9" s="35">
+        <v>4</v>
+      </c>
+      <c r="H9" s="35">
+        <v>0</v>
+      </c>
       <c r="I9" s="36"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="42"/>
       <c r="B10" s="39"/>
       <c r="C10" s="37"/>
@@ -3995,7 +4642,7 @@
       <c r="H10" s="35"/>
       <c r="I10" s="36"/>
     </row>
-    <row r="11" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="44"/>
       <c r="B11" s="45"/>
       <c r="C11" s="37"/>
@@ -4006,7 +4653,7 @@
       <c r="H11" s="35"/>
       <c r="I11" s="36"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="42"/>
       <c r="B12" s="39"/>
       <c r="C12" s="37"/>
@@ -4017,7 +4664,7 @@
       <c r="H12" s="35"/>
       <c r="I12" s="36"/>
     </row>
-    <row r="13" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="42"/>
       <c r="B13" s="39"/>
       <c r="C13" s="37"/>
@@ -4028,7 +4675,7 @@
       <c r="H13" s="35"/>
       <c r="I13" s="36"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="38"/>
       <c r="B14" s="38"/>
       <c r="C14" s="37"/>
@@ -4039,7 +4686,7 @@
       <c r="H14" s="35"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="38"/>
       <c r="B15" s="38"/>
       <c r="C15" s="37"/>
@@ -4050,7 +4697,7 @@
       <c r="H15" s="35"/>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
       <c r="C16" s="37"/>
@@ -4061,7 +4708,7 @@
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="38"/>
       <c r="B17" s="38"/>
       <c r="C17" s="37"/>
@@ -4072,7 +4719,7 @@
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
     </row>
-    <row r="18" spans="1:9" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
       <c r="B18" s="38"/>
       <c r="C18" s="37"/>
@@ -4083,7 +4730,7 @@
       <c r="H18" s="35"/>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
       <c r="C19" s="37"/>
@@ -4094,7 +4741,7 @@
       <c r="H19" s="35"/>
       <c r="I19" s="36"/>
     </row>
-    <row r="20" spans="1:9" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="38"/>
       <c r="B20" s="38"/>
       <c r="C20" s="46"/>
@@ -4105,35 +4752,35 @@
       <c r="H20" s="35"/>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
       <c r="B21" s="38"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="38"/>
       <c r="B22" s="38"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="38"/>
       <c r="B23" s="38"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="38"/>
       <c r="B24" s="38"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="38"/>
       <c r="B25" s="38"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="38"/>
       <c r="B26" s="38"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="38"/>
       <c r="B27" s="38"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="38"/>
       <c r="B28" s="38"/>
     </row>
@@ -4142,7 +4789,24 @@
     <mergeCell ref="J1:L2"/>
     <mergeCell ref="J3:L3"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:I100">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="C2:I2 C4:I4 C7:I100">
+    <cfRule type="expression" dxfId="17" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="6">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:I3">
+    <cfRule type="expression" dxfId="15" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="4">
+      <formula>MOD(ROW(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
     <cfRule type="expression" dxfId="13" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4154,26 +4818,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCDC273-1955-4816-9657-9486AB6F4970}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.86328125" customWidth="1"/>
-    <col min="3" max="3" width="11.9296875" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.265625" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="36.796875" customWidth="1"/>
+    <col min="9" max="9" width="36.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -4201,176 +4865,408 @@
       <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="114" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-    </row>
-    <row r="2" spans="1:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="42"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-    </row>
-    <row r="3" spans="1:12" ht="54.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="42"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="115">
+      <c r="J1" s="122" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+    </row>
+    <row r="2" spans="1:12" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="37">
+        <v>44218</v>
+      </c>
+      <c r="D2" s="35">
+        <v>1</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="35">
+        <v>1</v>
+      </c>
+      <c r="G2" s="35">
+        <v>3</v>
+      </c>
+      <c r="H2" s="35">
+        <v>2</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+    </row>
+    <row r="3" spans="1:12" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="37">
+        <v>23</v>
+      </c>
+      <c r="D3" s="35">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="35">
+        <v>3</v>
+      </c>
+      <c r="G3" s="35">
+        <v>3</v>
+      </c>
+      <c r="H3" s="35">
+        <v>2</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="123">
         <f>SUM(D2:D100)</f>
+        <v>32</v>
+      </c>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+    </row>
+    <row r="4" spans="1:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="59">
+        <v>44220</v>
+      </c>
+      <c r="D4" s="60">
+        <v>2</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="60">
+        <v>2</v>
+      </c>
+      <c r="G4" s="60">
+        <v>2</v>
+      </c>
+      <c r="H4" s="60">
         <v>0</v>
       </c>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-    </row>
-    <row r="4" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="42"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36"/>
-    </row>
-    <row r="5" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="42"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
-    </row>
-    <row r="6" spans="1:12" ht="35.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="42"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
-    </row>
-    <row r="7" spans="1:12" ht="43.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="42"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36"/>
-    </row>
-    <row r="8" spans="1:12" ht="82.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="43"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
-    </row>
-    <row r="9" spans="1:12" ht="55.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="42"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="36"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" s="42"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="36"/>
-    </row>
-    <row r="11" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I4" s="65" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="57">
+        <v>44221</v>
+      </c>
+      <c r="D5" s="58">
+        <v>2</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="58">
+        <v>2</v>
+      </c>
+      <c r="G5" s="58">
+        <v>2</v>
+      </c>
+      <c r="H5" s="58">
+        <v>0</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="37">
+        <v>26</v>
+      </c>
+      <c r="D6" s="35">
+        <v>2</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="35">
+        <v>4</v>
+      </c>
+      <c r="G6" s="35">
+        <v>5</v>
+      </c>
+      <c r="H6" s="35">
+        <v>3</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="37">
+        <v>27</v>
+      </c>
+      <c r="D7" s="35">
+        <v>3</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="35">
+        <v>5</v>
+      </c>
+      <c r="G7" s="35">
+        <v>5</v>
+      </c>
+      <c r="H7" s="35">
+        <v>0</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="37">
+        <v>28</v>
+      </c>
+      <c r="D8" s="35">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="35">
+        <v>4</v>
+      </c>
+      <c r="G8" s="35">
+        <v>4</v>
+      </c>
+      <c r="H8" s="35">
+        <v>2</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="37">
+        <v>30</v>
+      </c>
+      <c r="D9" s="35">
+        <v>4</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="35">
+        <v>4</v>
+      </c>
+      <c r="G9" s="35">
+        <v>4</v>
+      </c>
+      <c r="H9" s="35">
+        <v>0</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="37">
+        <v>44228</v>
+      </c>
+      <c r="D10" s="35">
+        <v>2</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="35">
+        <v>2</v>
+      </c>
+      <c r="G10" s="35">
+        <v>2</v>
+      </c>
+      <c r="H10" s="35">
+        <v>0</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="44"/>
       <c r="B11" s="45"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C11" s="57">
+        <v>44230</v>
+      </c>
+      <c r="D11" s="35">
+        <v>2</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="35">
+        <v>2</v>
+      </c>
+      <c r="G11" s="35">
+        <v>2</v>
+      </c>
+      <c r="H11" s="35">
+        <v>0</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="42"/>
       <c r="B12" s="39"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36"/>
-    </row>
-    <row r="13" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C12" s="37">
+        <v>44231</v>
+      </c>
+      <c r="D12" s="35">
+        <v>3</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="35">
+        <v>5</v>
+      </c>
+      <c r="G12" s="35">
+        <v>3</v>
+      </c>
+      <c r="H12" s="35">
+        <v>0</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="42"/>
       <c r="B13" s="39"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C13" s="37">
+        <v>44233</v>
+      </c>
+      <c r="D13" s="35">
+        <v>2</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="35">
+        <v>2</v>
+      </c>
+      <c r="G13" s="35">
+        <v>2</v>
+      </c>
+      <c r="H13" s="35">
+        <v>0</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="38"/>
       <c r="B14" s="38"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C14" s="37">
+        <v>44234</v>
+      </c>
+      <c r="D14" s="35">
+        <v>2</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="35">
+        <v>2</v>
+      </c>
+      <c r="G14" s="35">
+        <v>2</v>
+      </c>
+      <c r="H14" s="35">
+        <v>0</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="38"/>
       <c r="B15" s="38"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="36"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C15" s="37">
+        <v>44235</v>
+      </c>
+      <c r="D15" s="35">
+        <v>3</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="35">
+        <v>2</v>
+      </c>
+      <c r="G15" s="35">
+        <v>3</v>
+      </c>
+      <c r="H15" s="35">
+        <v>0</v>
+      </c>
+      <c r="I15" s="50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
       <c r="C16" s="37"/>
@@ -4381,7 +5277,7 @@
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="38"/>
       <c r="B17" s="38"/>
       <c r="C17" s="37"/>
@@ -4392,7 +5288,7 @@
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
     </row>
-    <row r="18" spans="1:9" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
       <c r="B18" s="38"/>
       <c r="C18" s="37"/>
@@ -4403,7 +5299,7 @@
       <c r="H18" s="35"/>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
       <c r="C19" s="37"/>
@@ -4414,7 +5310,7 @@
       <c r="H19" s="35"/>
       <c r="I19" s="36"/>
     </row>
-    <row r="20" spans="1:9" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="38"/>
       <c r="B20" s="38"/>
       <c r="C20" s="46"/>
@@ -4425,35 +5321,35 @@
       <c r="H20" s="35"/>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
       <c r="B21" s="38"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="38"/>
       <c r="B22" s="38"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="38"/>
       <c r="B23" s="38"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="38"/>
       <c r="B24" s="38"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="38"/>
       <c r="B25" s="38"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="38"/>
       <c r="B26" s="38"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="38"/>
       <c r="B27" s="38"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="38"/>
       <c r="B28" s="38"/>
     </row>
@@ -4462,7 +5358,8 @@
     <mergeCell ref="J1:L2"/>
     <mergeCell ref="J3:L3"/>
   </mergeCells>
-  <conditionalFormatting sqref="C2:I100">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="D11:I11 C2:I3 C6:I10 C12:I100">
     <cfRule type="expression" dxfId="11" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -4474,26 +5371,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405DE563-A71A-4872-98C4-C931E4E8F98C}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.86328125" customWidth="1"/>
-    <col min="3" max="3" width="11.9296875" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.265625" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="36.796875" customWidth="1"/>
+    <col min="9" max="9" width="36.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -4521,13 +5418,13 @@
       <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="114" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-    </row>
-    <row r="2" spans="1:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J1" s="122" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+    </row>
+    <row r="2" spans="1:12" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42"/>
       <c r="B2" s="39"/>
       <c r="C2" s="37"/>
@@ -4537,11 +5434,11 @@
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
       <c r="I2" s="36"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-    </row>
-    <row r="3" spans="1:12" ht="54.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+    </row>
+    <row r="3" spans="1:12" ht="54.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42"/>
       <c r="B3" s="39"/>
       <c r="C3" s="37"/>
@@ -4551,14 +5448,14 @@
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
       <c r="I3" s="36"/>
-      <c r="J3" s="115">
+      <c r="J3" s="123">
         <f>SUM(D2:D100)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-    </row>
-    <row r="4" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+    </row>
+    <row r="4" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42"/>
       <c r="B4" s="39"/>
       <c r="C4" s="37"/>
@@ -4569,7 +5466,7 @@
       <c r="H4" s="35"/>
       <c r="I4" s="36"/>
     </row>
-    <row r="5" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42"/>
       <c r="B5" s="39"/>
       <c r="C5" s="37"/>
@@ -4580,7 +5477,7 @@
       <c r="H5" s="35"/>
       <c r="I5" s="36"/>
     </row>
-    <row r="6" spans="1:12" ht="35.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="42"/>
       <c r="B6" s="39"/>
       <c r="C6" s="37"/>
@@ -4591,7 +5488,7 @@
       <c r="H6" s="35"/>
       <c r="I6" s="36"/>
     </row>
-    <row r="7" spans="1:12" ht="43.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="42"/>
       <c r="B7" s="39"/>
       <c r="C7" s="37"/>
@@ -4602,7 +5499,7 @@
       <c r="H7" s="35"/>
       <c r="I7" s="36"/>
     </row>
-    <row r="8" spans="1:12" ht="82.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" s="39"/>
       <c r="C8" s="37"/>
@@ -4613,7 +5510,7 @@
       <c r="H8" s="35"/>
       <c r="I8" s="36"/>
     </row>
-    <row r="9" spans="1:12" ht="55.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="42"/>
       <c r="B9" s="39"/>
       <c r="C9" s="37"/>
@@ -4624,7 +5521,7 @@
       <c r="H9" s="35"/>
       <c r="I9" s="36"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="42"/>
       <c r="B10" s="39"/>
       <c r="C10" s="37"/>
@@ -4635,7 +5532,7 @@
       <c r="H10" s="35"/>
       <c r="I10" s="36"/>
     </row>
-    <row r="11" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="44"/>
       <c r="B11" s="45"/>
       <c r="C11" s="37"/>
@@ -4646,7 +5543,7 @@
       <c r="H11" s="35"/>
       <c r="I11" s="36"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="42"/>
       <c r="B12" s="39"/>
       <c r="C12" s="37"/>
@@ -4657,7 +5554,7 @@
       <c r="H12" s="35"/>
       <c r="I12" s="36"/>
     </row>
-    <row r="13" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="42"/>
       <c r="B13" s="39"/>
       <c r="C13" s="37"/>
@@ -4668,7 +5565,7 @@
       <c r="H13" s="35"/>
       <c r="I13" s="36"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="38"/>
       <c r="B14" s="38"/>
       <c r="C14" s="37"/>
@@ -4679,7 +5576,7 @@
       <c r="H14" s="35"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="38"/>
       <c r="B15" s="38"/>
       <c r="C15" s="37"/>
@@ -4690,7 +5587,7 @@
       <c r="H15" s="35"/>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
       <c r="C16" s="37"/>
@@ -4701,7 +5598,7 @@
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="38"/>
       <c r="B17" s="38"/>
       <c r="C17" s="37"/>
@@ -4712,7 +5609,7 @@
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
     </row>
-    <row r="18" spans="1:9" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
       <c r="B18" s="38"/>
       <c r="C18" s="37"/>
@@ -4723,7 +5620,7 @@
       <c r="H18" s="35"/>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
       <c r="C19" s="37"/>
@@ -4734,7 +5631,7 @@
       <c r="H19" s="35"/>
       <c r="I19" s="36"/>
     </row>
-    <row r="20" spans="1:9" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="38"/>
       <c r="B20" s="38"/>
       <c r="C20" s="46"/>
@@ -4745,35 +5642,35 @@
       <c r="H20" s="35"/>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
       <c r="B21" s="38"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="38"/>
       <c r="B22" s="38"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="38"/>
       <c r="B23" s="38"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="38"/>
       <c r="B24" s="38"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="38"/>
       <c r="B25" s="38"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="38"/>
       <c r="B26" s="38"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="38"/>
       <c r="B27" s="38"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="38"/>
       <c r="B28" s="38"/>
     </row>
@@ -4794,7 +5691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3090DA-9265-42C8-BED9-7F304EC70A12}">
   <dimension ref="A1:L28"/>
   <sheetViews>
@@ -4802,18 +5699,18 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.86328125" customWidth="1"/>
-    <col min="3" max="3" width="11.9296875" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.265625" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="36.796875" customWidth="1"/>
+    <col min="9" max="9" width="36.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -4841,13 +5738,13 @@
       <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="114" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-    </row>
-    <row r="2" spans="1:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J1" s="122" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+    </row>
+    <row r="2" spans="1:12" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42"/>
       <c r="B2" s="39"/>
       <c r="C2" s="37"/>
@@ -4857,11 +5754,11 @@
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
       <c r="I2" s="36"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-    </row>
-    <row r="3" spans="1:12" ht="54.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+    </row>
+    <row r="3" spans="1:12" ht="54.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42"/>
       <c r="B3" s="39"/>
       <c r="C3" s="37"/>
@@ -4871,14 +5768,14 @@
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
       <c r="I3" s="36"/>
-      <c r="J3" s="115">
+      <c r="J3" s="123">
         <f>SUM(D2:D100)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-    </row>
-    <row r="4" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+    </row>
+    <row r="4" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42"/>
       <c r="B4" s="39"/>
       <c r="C4" s="37"/>
@@ -4889,7 +5786,7 @@
       <c r="H4" s="35"/>
       <c r="I4" s="36"/>
     </row>
-    <row r="5" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42"/>
       <c r="B5" s="39"/>
       <c r="C5" s="37"/>
@@ -4900,7 +5797,7 @@
       <c r="H5" s="35"/>
       <c r="I5" s="36"/>
     </row>
-    <row r="6" spans="1:12" ht="35.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="42"/>
       <c r="B6" s="39"/>
       <c r="C6" s="37"/>
@@ -4911,7 +5808,7 @@
       <c r="H6" s="35"/>
       <c r="I6" s="36"/>
     </row>
-    <row r="7" spans="1:12" ht="43.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="42"/>
       <c r="B7" s="39"/>
       <c r="C7" s="37"/>
@@ -4922,7 +5819,7 @@
       <c r="H7" s="35"/>
       <c r="I7" s="36"/>
     </row>
-    <row r="8" spans="1:12" ht="82.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" s="39"/>
       <c r="C8" s="37"/>
@@ -4933,7 +5830,7 @@
       <c r="H8" s="35"/>
       <c r="I8" s="36"/>
     </row>
-    <row r="9" spans="1:12" ht="55.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="42"/>
       <c r="B9" s="39"/>
       <c r="C9" s="37"/>
@@ -4944,7 +5841,7 @@
       <c r="H9" s="35"/>
       <c r="I9" s="36"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="42"/>
       <c r="B10" s="39"/>
       <c r="C10" s="37"/>
@@ -4955,7 +5852,7 @@
       <c r="H10" s="35"/>
       <c r="I10" s="36"/>
     </row>
-    <row r="11" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="44"/>
       <c r="B11" s="45"/>
       <c r="C11" s="37"/>
@@ -4966,7 +5863,7 @@
       <c r="H11" s="35"/>
       <c r="I11" s="36"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="42"/>
       <c r="B12" s="39"/>
       <c r="C12" s="37"/>
@@ -4977,7 +5874,7 @@
       <c r="H12" s="35"/>
       <c r="I12" s="36"/>
     </row>
-    <row r="13" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="42"/>
       <c r="B13" s="39"/>
       <c r="C13" s="37"/>
@@ -4988,7 +5885,7 @@
       <c r="H13" s="35"/>
       <c r="I13" s="36"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="38"/>
       <c r="B14" s="38"/>
       <c r="C14" s="37"/>
@@ -4999,7 +5896,7 @@
       <c r="H14" s="35"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="38"/>
       <c r="B15" s="38"/>
       <c r="C15" s="37"/>
@@ -5010,7 +5907,7 @@
       <c r="H15" s="35"/>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
       <c r="C16" s="37"/>
@@ -5021,7 +5918,7 @@
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="38"/>
       <c r="B17" s="38"/>
       <c r="C17" s="37"/>
@@ -5032,7 +5929,7 @@
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
     </row>
-    <row r="18" spans="1:9" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
       <c r="B18" s="38"/>
       <c r="C18" s="37"/>
@@ -5043,7 +5940,7 @@
       <c r="H18" s="35"/>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
       <c r="C19" s="37"/>
@@ -5054,7 +5951,7 @@
       <c r="H19" s="35"/>
       <c r="I19" s="36"/>
     </row>
-    <row r="20" spans="1:9" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="38"/>
       <c r="B20" s="38"/>
       <c r="C20" s="46"/>
@@ -5065,35 +5962,35 @@
       <c r="H20" s="35"/>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
       <c r="B21" s="38"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="38"/>
       <c r="B22" s="38"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="38"/>
       <c r="B23" s="38"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="38"/>
       <c r="B24" s="38"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="38"/>
       <c r="B25" s="38"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="38"/>
       <c r="B26" s="38"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="38"/>
       <c r="B27" s="38"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="38"/>
       <c r="B28" s="38"/>
     </row>
@@ -5114,7 +6011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4708F73B-3CD8-43C4-82D3-E0D108E5DE2E}">
   <dimension ref="A1:L28"/>
   <sheetViews>
@@ -5122,18 +6019,18 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.86328125" customWidth="1"/>
-    <col min="3" max="3" width="11.9296875" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.265625" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="36.796875" customWidth="1"/>
+    <col min="9" max="9" width="36.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -5161,13 +6058,13 @@
       <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="114" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-    </row>
-    <row r="2" spans="1:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J1" s="122" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+    </row>
+    <row r="2" spans="1:12" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42"/>
       <c r="B2" s="39"/>
       <c r="C2" s="37"/>
@@ -5177,11 +6074,11 @@
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
       <c r="I2" s="36"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-    </row>
-    <row r="3" spans="1:12" ht="54.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+    </row>
+    <row r="3" spans="1:12" ht="54.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42"/>
       <c r="B3" s="39"/>
       <c r="C3" s="37"/>
@@ -5191,14 +6088,14 @@
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
       <c r="I3" s="36"/>
-      <c r="J3" s="115">
+      <c r="J3" s="123">
         <f>SUM(D2:D100)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-    </row>
-    <row r="4" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+    </row>
+    <row r="4" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42"/>
       <c r="B4" s="39"/>
       <c r="C4" s="37"/>
@@ -5209,7 +6106,7 @@
       <c r="H4" s="35"/>
       <c r="I4" s="36"/>
     </row>
-    <row r="5" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42"/>
       <c r="B5" s="39"/>
       <c r="C5" s="37"/>
@@ -5220,7 +6117,7 @@
       <c r="H5" s="35"/>
       <c r="I5" s="36"/>
     </row>
-    <row r="6" spans="1:12" ht="35.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="42"/>
       <c r="B6" s="39"/>
       <c r="C6" s="37"/>
@@ -5231,7 +6128,7 @@
       <c r="H6" s="35"/>
       <c r="I6" s="36"/>
     </row>
-    <row r="7" spans="1:12" ht="43.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="42"/>
       <c r="B7" s="39"/>
       <c r="C7" s="37"/>
@@ -5242,7 +6139,7 @@
       <c r="H7" s="35"/>
       <c r="I7" s="36"/>
     </row>
-    <row r="8" spans="1:12" ht="82.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" s="39"/>
       <c r="C8" s="37"/>
@@ -5253,7 +6150,7 @@
       <c r="H8" s="35"/>
       <c r="I8" s="36"/>
     </row>
-    <row r="9" spans="1:12" ht="55.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="42"/>
       <c r="B9" s="39"/>
       <c r="C9" s="37"/>
@@ -5264,7 +6161,7 @@
       <c r="H9" s="35"/>
       <c r="I9" s="36"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="42"/>
       <c r="B10" s="39"/>
       <c r="C10" s="37"/>
@@ -5275,7 +6172,7 @@
       <c r="H10" s="35"/>
       <c r="I10" s="36"/>
     </row>
-    <row r="11" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="44"/>
       <c r="B11" s="45"/>
       <c r="C11" s="37"/>
@@ -5286,7 +6183,7 @@
       <c r="H11" s="35"/>
       <c r="I11" s="36"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="42"/>
       <c r="B12" s="39"/>
       <c r="C12" s="37"/>
@@ -5297,7 +6194,7 @@
       <c r="H12" s="35"/>
       <c r="I12" s="36"/>
     </row>
-    <row r="13" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="42"/>
       <c r="B13" s="39"/>
       <c r="C13" s="37"/>
@@ -5308,7 +6205,7 @@
       <c r="H13" s="35"/>
       <c r="I13" s="36"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="38"/>
       <c r="B14" s="38"/>
       <c r="C14" s="37"/>
@@ -5319,7 +6216,7 @@
       <c r="H14" s="35"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="38"/>
       <c r="B15" s="38"/>
       <c r="C15" s="37"/>
@@ -5330,7 +6227,7 @@
       <c r="H15" s="35"/>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
       <c r="C16" s="37"/>
@@ -5341,7 +6238,7 @@
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="38"/>
       <c r="B17" s="38"/>
       <c r="C17" s="37"/>
@@ -5352,7 +6249,7 @@
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
     </row>
-    <row r="18" spans="1:9" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
       <c r="B18" s="38"/>
       <c r="C18" s="37"/>
@@ -5363,7 +6260,7 @@
       <c r="H18" s="35"/>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
       <c r="C19" s="37"/>
@@ -5374,7 +6271,7 @@
       <c r="H19" s="35"/>
       <c r="I19" s="36"/>
     </row>
-    <row r="20" spans="1:9" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="38"/>
       <c r="B20" s="38"/>
       <c r="C20" s="46"/>
@@ -5385,35 +6282,35 @@
       <c r="H20" s="35"/>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
       <c r="B21" s="38"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="38"/>
       <c r="B22" s="38"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="38"/>
       <c r="B23" s="38"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="38"/>
       <c r="B24" s="38"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="38"/>
       <c r="B25" s="38"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="38"/>
       <c r="B26" s="38"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="38"/>
       <c r="B27" s="38"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="38"/>
       <c r="B28" s="38"/>
     </row>
@@ -5434,7 +6331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F0F8FB-314A-4036-8FD4-51D1DAB9C674}">
   <dimension ref="A1:L28"/>
   <sheetViews>
@@ -5442,18 +6339,18 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.86328125" customWidth="1"/>
-    <col min="3" max="3" width="11.9296875" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.265625" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="36.796875" customWidth="1"/>
+    <col min="9" max="9" width="36.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -5481,13 +6378,13 @@
       <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="114" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-    </row>
-    <row r="2" spans="1:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J1" s="122" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+    </row>
+    <row r="2" spans="1:12" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42"/>
       <c r="B2" s="39"/>
       <c r="C2" s="37"/>
@@ -5497,11 +6394,11 @@
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
       <c r="I2" s="36"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-    </row>
-    <row r="3" spans="1:12" ht="54.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+    </row>
+    <row r="3" spans="1:12" ht="54.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42"/>
       <c r="B3" s="39"/>
       <c r="C3" s="37"/>
@@ -5511,14 +6408,14 @@
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
       <c r="I3" s="36"/>
-      <c r="J3" s="115">
+      <c r="J3" s="123">
         <f>SUM(D2:D100)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-    </row>
-    <row r="4" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+    </row>
+    <row r="4" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42"/>
       <c r="B4" s="39"/>
       <c r="C4" s="37"/>
@@ -5529,7 +6426,7 @@
       <c r="H4" s="35"/>
       <c r="I4" s="36"/>
     </row>
-    <row r="5" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42"/>
       <c r="B5" s="39"/>
       <c r="C5" s="37"/>
@@ -5540,7 +6437,7 @@
       <c r="H5" s="35"/>
       <c r="I5" s="36"/>
     </row>
-    <row r="6" spans="1:12" ht="35.65" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="42"/>
       <c r="B6" s="39"/>
       <c r="C6" s="37"/>
@@ -5551,7 +6448,7 @@
       <c r="H6" s="35"/>
       <c r="I6" s="36"/>
     </row>
-    <row r="7" spans="1:12" ht="43.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="42"/>
       <c r="B7" s="39"/>
       <c r="C7" s="37"/>
@@ -5562,7 +6459,7 @@
       <c r="H7" s="35"/>
       <c r="I7" s="36"/>
     </row>
-    <row r="8" spans="1:12" ht="82.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" s="39"/>
       <c r="C8" s="37"/>
@@ -5573,7 +6470,7 @@
       <c r="H8" s="35"/>
       <c r="I8" s="36"/>
     </row>
-    <row r="9" spans="1:12" ht="55.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="42"/>
       <c r="B9" s="39"/>
       <c r="C9" s="37"/>
@@ -5584,7 +6481,7 @@
       <c r="H9" s="35"/>
       <c r="I9" s="36"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="42"/>
       <c r="B10" s="39"/>
       <c r="C10" s="37"/>
@@ -5595,7 +6492,7 @@
       <c r="H10" s="35"/>
       <c r="I10" s="36"/>
     </row>
-    <row r="11" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="44"/>
       <c r="B11" s="45"/>
       <c r="C11" s="37"/>
@@ -5606,7 +6503,7 @@
       <c r="H11" s="35"/>
       <c r="I11" s="36"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="42"/>
       <c r="B12" s="39"/>
       <c r="C12" s="37"/>
@@ -5617,7 +6514,7 @@
       <c r="H12" s="35"/>
       <c r="I12" s="36"/>
     </row>
-    <row r="13" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="42"/>
       <c r="B13" s="39"/>
       <c r="C13" s="37"/>
@@ -5628,7 +6525,7 @@
       <c r="H13" s="35"/>
       <c r="I13" s="36"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="38"/>
       <c r="B14" s="38"/>
       <c r="C14" s="37"/>
@@ -5639,7 +6536,7 @@
       <c r="H14" s="35"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="38"/>
       <c r="B15" s="38"/>
       <c r="C15" s="37"/>
@@ -5650,7 +6547,7 @@
       <c r="H15" s="35"/>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
       <c r="C16" s="37"/>
@@ -5661,7 +6558,7 @@
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="38"/>
       <c r="B17" s="38"/>
       <c r="C17" s="37"/>
@@ -5672,7 +6569,7 @@
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
     </row>
-    <row r="18" spans="1:9" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
       <c r="B18" s="38"/>
       <c r="C18" s="37"/>
@@ -5683,7 +6580,7 @@
       <c r="H18" s="35"/>
       <c r="I18" s="36"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
       <c r="C19" s="37"/>
@@ -5694,7 +6591,7 @@
       <c r="H19" s="35"/>
       <c r="I19" s="36"/>
     </row>
-    <row r="20" spans="1:9" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="38"/>
       <c r="B20" s="38"/>
       <c r="C20" s="46"/>
@@ -5705,35 +6602,35 @@
       <c r="H20" s="35"/>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
       <c r="B21" s="38"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="38"/>
       <c r="B22" s="38"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="38"/>
       <c r="B23" s="38"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="38"/>
       <c r="B24" s="38"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="38"/>
       <c r="B25" s="38"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="38"/>
       <c r="B26" s="38"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="38"/>
       <c r="B27" s="38"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="38"/>
       <c r="B28" s="38"/>
     </row>
@@ -5752,324 +6649,4 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E76A85-FF30-4348-B508-7E9530528376}">
-  <dimension ref="A1:L28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="28.86328125" customWidth="1"/>
-    <col min="3" max="3" width="11.9296875" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.265625" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="36.796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="114" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-    </row>
-    <row r="2" spans="1:12" ht="27.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="42"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-    </row>
-    <row r="3" spans="1:12" ht="54.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="42"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="115">
-        <f>SUM(D2:D100)</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-    </row>
-    <row r="4" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="42"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36"/>
-    </row>
-    <row r="5" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="42"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
-    </row>
-    <row r="6" spans="1:12" ht="35.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="42"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
-    </row>
-    <row r="7" spans="1:12" ht="43.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="42"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36"/>
-    </row>
-    <row r="8" spans="1:12" ht="82.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="43"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
-    </row>
-    <row r="9" spans="1:12" ht="55.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="42"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="36"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10" s="42"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="36"/>
-    </row>
-    <row r="11" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="44"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12" s="42"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36"/>
-    </row>
-    <row r="13" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="42"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="36"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-    </row>
-    <row r="18" spans="1:9" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
-    </row>
-    <row r="20" spans="1:9" ht="40.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="36"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="J1:L2"/>
-    <mergeCell ref="J3:L3"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C2:I100">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>MOD(ROW(),2)=0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>MOD(ROW(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Sprints/Buchberger.xlsx
+++ b/Sprints/Buchberger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\BooklessDocs\Sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E929BE-1BBF-421D-B9B6-D0F7D8E8C1E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C61B466-3B0A-41D6-BED0-286D5B843011}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="4" xr2:uid="{86214E96-66BA-481E-AE89-B5FD40226654}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="29448" windowHeight="17496" activeTab="5" xr2:uid="{86214E96-66BA-481E-AE89-B5FD40226654}"/>
   </bookViews>
   <sheets>
     <sheet name="Einleitung" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="159">
   <si>
     <t>Todo Stuff</t>
   </si>
@@ -479,6 +479,39 @@
   </si>
   <si>
     <t>After watching some YT Videos and trying it, i was able to Puplish it under following URL https://codechrisb.github.io/bookless</t>
+  </si>
+  <si>
+    <t>Pdf Generation System rework</t>
+  </si>
+  <si>
+    <t>I tried to change the dashboard css so that the boxes would still fit even when the left sidenav was gone ,since Im aiming to change the current nav with a mat sidenav to give the user more space if he/she wants it.</t>
+  </si>
+  <si>
+    <t>Some changes on the pdf Generation unrelated to  any particular Issue</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Im not sure when I published the Live demo but it took me about 2 Hours</t>
+  </si>
+  <si>
+    <t>Talking about new Sprint creating the first half of the power point for this sprint, sprint meeting</t>
+  </si>
+  <si>
+    <t>Bill Pdf Generation</t>
+  </si>
+  <si>
+    <t>Delivery Note Component</t>
+  </si>
+  <si>
+    <t>Delivery Note List</t>
+  </si>
+  <si>
+    <t>Delivery Note Pdf Generation</t>
+  </si>
+  <si>
+    <t>Transformdialog all the Transformation</t>
   </si>
 </sst>
 </file>
@@ -981,7 +1014,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1103,9 +1136,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1279,6 +1309,12 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -1857,62 +1893,62 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:16" ht="39" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="103"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="102"/>
       <c r="I1" s="7"/>
-      <c r="J1" s="101" t="s">
+      <c r="J1" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="103"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="102"/>
     </row>
     <row r="2" spans="1:16" ht="39" x14ac:dyDescent="0.3">
-      <c r="A2" s="104"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="106"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="105"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="106"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="105"/>
     </row>
     <row r="3" spans="1:16" ht="39.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="107"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="109"/>
+      <c r="A3" s="106"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="108"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="106"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="105"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
@@ -1934,22 +1970,22 @@
     </row>
     <row r="5" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="113"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="112"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="13"/>
       <c r="I5" s="5"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="114" t="s">
+      <c r="K5" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="115"/>
-      <c r="M5" s="116"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="115"/>
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
       <c r="P5" s="13"/>
@@ -1957,10 +1993,10 @@
     <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
-      <c r="C6" s="117" t="s">
+      <c r="C6" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="118"/>
+      <c r="D6" s="117"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -1985,33 +2021,33 @@
       <c r="H7" s="13"/>
       <c r="I7" s="5"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="95" t="s">
+      <c r="K7" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="97"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="96"/>
       <c r="P7" s="13"/>
     </row>
     <row r="8" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="92"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="91"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="13"/>
       <c r="I8" s="5"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="100"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="99"/>
       <c r="P8" s="13"/>
     </row>
     <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2025,23 +2061,23 @@
       <c r="H9" s="13"/>
       <c r="I9" s="5"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="119"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="121"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="120"/>
       <c r="P9" s="13"/>
     </row>
     <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="73"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="72"/>
       <c r="H10" s="14"/>
       <c r="I10" s="15"/>
       <c r="J10" s="11"/>
@@ -2054,20 +2090,20 @@
     </row>
     <row r="11" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="79"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="78"/>
       <c r="H11" s="14"/>
       <c r="I11" s="15"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="90" t="s">
+      <c r="K11" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="91"/>
-      <c r="M11" s="92"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="91"/>
       <c r="N11" s="33"/>
       <c r="O11" s="33"/>
       <c r="P11" s="13"/>
@@ -2092,10 +2128,10 @@
     </row>
     <row r="13" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="94"/>
+      <c r="C13" s="93"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -2103,13 +2139,13 @@
       <c r="H13" s="17"/>
       <c r="I13" s="18"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="95" t="s">
+      <c r="K13" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="96"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="97"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="96"/>
       <c r="P13" s="13"/>
     </row>
     <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2123,23 +2159,23 @@
       <c r="H14" s="17"/>
       <c r="I14" s="18"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="100"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="99"/>
       <c r="P14" s="13"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="73"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="72"/>
       <c r="H15" s="21"/>
       <c r="I15" s="22"/>
       <c r="J15" s="11"/>
@@ -2154,12 +2190,12 @@
     </row>
     <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="76"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="75"/>
       <c r="H16" s="21"/>
       <c r="I16" s="22"/>
       <c r="J16" s="11"/>
@@ -2174,12 +2210,12 @@
     </row>
     <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="76"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="75"/>
       <c r="H17" s="29"/>
       <c r="I17" s="30"/>
       <c r="J17" s="26"/>
@@ -2192,12 +2228,12 @@
     </row>
     <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="76"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="75"/>
       <c r="H18" s="21"/>
       <c r="I18" s="22"/>
       <c r="J18" s="5"/>
@@ -2210,12 +2246,12 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="76"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="75"/>
       <c r="H19" s="21"/>
       <c r="I19" s="22"/>
       <c r="J19" s="8"/>
@@ -2228,12 +2264,12 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="76"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="75"/>
       <c r="H20" s="21"/>
       <c r="I20" s="22"/>
       <c r="J20" s="11"/>
@@ -2246,12 +2282,12 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="76"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="75"/>
       <c r="H21" s="21"/>
       <c r="I21" s="22"/>
       <c r="J21" s="11"/>
@@ -2264,25 +2300,25 @@
     </row>
     <row r="22" spans="1:16" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="79"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="78"/>
       <c r="H22" s="21"/>
       <c r="I22" s="22"/>
-      <c r="J22" s="88">
+      <c r="J22" s="87">
         <f>SUM(Sprint3!J3)+SUM(Sprint4!J3)+SUM(Sprint5!J3)+SUM(Sprint6!J3)+SUM(Sprint7!J3)+SUM(Sprint8!J3)+SUM(Sprint9!J3)+SUM(Sprint10!J3)+SUM(Sprint11!J3)+'Sprint1&amp;2'!J3</f>
-        <v>261</v>
-      </c>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="K22" s="88"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
       <c r="P22" s="13"/>
     </row>
     <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2295,34 +2331,34 @@
       <c r="G23" s="32"/>
       <c r="H23" s="21"/>
       <c r="I23" s="22"/>
-      <c r="J23" s="88"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
       <c r="P23" s="13"/>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
-      <c r="B24" s="86" t="s">
+      <c r="B24" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="87"/>
+      <c r="C24" s="86"/>
       <c r="D24" s="31"/>
       <c r="E24" s="31"/>
       <c r="F24" s="31"/>
       <c r="G24" s="31"/>
       <c r="H24" s="21"/>
       <c r="I24" s="22"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="68" t="s">
+      <c r="J24" s="87"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
       <c r="P24" s="13"/>
     </row>
     <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2335,42 +2371,42 @@
       <c r="G25" s="31"/>
       <c r="H25" s="21"/>
       <c r="I25" s="22"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
       <c r="P25" s="13"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
-      <c r="B26" s="80" t="s">
+      <c r="B26" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="82"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="81"/>
       <c r="H26" s="21"/>
       <c r="I26" s="22"/>
       <c r="J26" s="11"/>
       <c r="K26" s="33"/>
       <c r="L26" s="33"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="70"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
       <c r="P26" s="13"/>
     </row>
     <row r="27" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11"/>
-      <c r="B27" s="83"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="85"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="84"/>
       <c r="H27" s="21"/>
       <c r="I27" s="22"/>
       <c r="J27" s="11"/>
@@ -2474,11 +2510,11 @@
       <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="122" t="s">
+      <c r="J1" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
     </row>
     <row r="2" spans="1:12" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42"/>
@@ -2490,9 +2526,9 @@
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
       <c r="I2" s="36"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
     </row>
     <row r="3" spans="1:12" ht="54.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42"/>
@@ -2504,12 +2540,12 @@
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
       <c r="I3" s="36"/>
-      <c r="J3" s="123">
+      <c r="J3" s="122">
         <f>SUM(D2:D100)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
     </row>
     <row r="4" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42"/>
@@ -2845,11 +2881,11 @@
       <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="122" t="s">
+      <c r="J1" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
     </row>
     <row r="2" spans="1:12" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="54" t="s">
@@ -2879,9 +2915,9 @@
       <c r="I2" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
     </row>
     <row r="3" spans="1:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="54" t="s">
@@ -2911,12 +2947,12 @@
       <c r="I3" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="123">
+      <c r="J3" s="122">
         <f>SUM(D2:D100)</f>
         <v>88</v>
       </c>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
     </row>
     <row r="4" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="63" t="s">
@@ -4364,7 +4400,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4406,11 +4442,11 @@
       <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="122" t="s">
+      <c r="J1" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
     </row>
     <row r="2" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
@@ -4440,9 +4476,9 @@
       <c r="I2" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
     </row>
     <row r="3" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
@@ -4472,12 +4508,12 @@
       <c r="I3" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="123">
+      <c r="J3" s="122">
         <f>SUM(D2:D100)</f>
         <v>21</v>
       </c>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
     </row>
     <row r="4" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="61" t="s">
@@ -4822,8 +4858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCDC273-1955-4816-9657-9486AB6F4970}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4865,11 +4901,11 @@
       <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="122" t="s">
+      <c r="J1" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
     </row>
     <row r="2" spans="1:12" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
@@ -4899,9 +4935,9 @@
       <c r="I2" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
     </row>
     <row r="3" spans="1:12" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
@@ -4931,12 +4967,12 @@
       <c r="I3" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="J3" s="123">
+      <c r="J3" s="122">
         <f>SUM(D2:D100)</f>
-        <v>32</v>
-      </c>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
+        <v>41</v>
+      </c>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
     </row>
     <row r="4" spans="1:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
@@ -4963,7 +4999,7 @@
       <c r="H4" s="60">
         <v>0</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="123" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4992,7 +5028,7 @@
       <c r="H5" s="58">
         <v>0</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="124" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5021,7 +5057,7 @@
       <c r="H6" s="35">
         <v>3</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="50" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5050,7 +5086,7 @@
       <c r="H7" s="35">
         <v>0</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="50" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5079,7 +5115,7 @@
       <c r="H8" s="35">
         <v>2</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="50" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5108,7 +5144,7 @@
       <c r="H9" s="35">
         <v>0</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="50" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5137,7 +5173,7 @@
       <c r="H10" s="35">
         <v>0</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="50" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5162,7 +5198,7 @@
       <c r="H11" s="35">
         <v>0</v>
       </c>
-      <c r="I11" s="36" t="s">
+      <c r="I11" s="50" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5187,7 +5223,7 @@
       <c r="H12" s="35">
         <v>0</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="I12" s="50" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5212,7 +5248,7 @@
       <c r="H13" s="35">
         <v>0</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I13" s="50" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5237,7 +5273,7 @@
       <c r="H14" s="35">
         <v>0</v>
       </c>
-      <c r="I14" s="36" t="s">
+      <c r="I14" s="50" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5269,46 +5305,100 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C16" s="37">
+        <v>44239</v>
+      </c>
+      <c r="D16" s="35">
+        <v>2</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="35">
+        <v>2</v>
+      </c>
+      <c r="G16" s="35">
+        <v>2</v>
+      </c>
+      <c r="H16" s="35">
+        <v>0</v>
+      </c>
+      <c r="I16" s="51" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="38"/>
       <c r="B17" s="38"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
+      <c r="C17" s="37">
+        <v>44241</v>
+      </c>
+      <c r="D17" s="35">
+        <v>2</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="35">
+        <v>2</v>
+      </c>
       <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
+      <c r="H17" s="35">
+        <v>0</v>
+      </c>
+      <c r="I17" s="50" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
       <c r="B18" s="38"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C18" s="37">
+        <v>44245</v>
+      </c>
+      <c r="D18" s="35">
+        <v>3</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="35">
+        <v>3</v>
+      </c>
+      <c r="G18" s="35">
+        <v>3</v>
+      </c>
+      <c r="H18" s="35">
+        <v>0</v>
+      </c>
+      <c r="I18" s="50" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="38"/>
       <c r="B19" s="38"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
+      <c r="C19" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="35">
+        <v>2</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="35">
+        <v>2</v>
+      </c>
+      <c r="G19" s="35">
+        <v>2</v>
+      </c>
+      <c r="H19" s="35">
+        <v>0</v>
+      </c>
+      <c r="I19" s="50" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="38"/>
@@ -5375,13 +5465,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405DE563-A71A-4872-98C4-C931E4E8F98C}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="1" max="1" width="28.21875" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="5" max="5" width="14.21875" customWidth="1"/>
@@ -5418,29 +5509,51 @@
       <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="122" t="s">
+      <c r="J1" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-    </row>
-    <row r="2" spans="1:12" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+    </row>
+    <row r="2" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="35">
+        <v>2</v>
+      </c>
+      <c r="E2" s="35">
+        <v>2</v>
+      </c>
+      <c r="F2" s="35">
+        <v>2</v>
+      </c>
+      <c r="G2" s="35">
+        <v>2</v>
+      </c>
+      <c r="H2" s="35">
+        <v>0</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
     </row>
     <row r="3" spans="1:12" ht="54.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42"/>
-      <c r="B3" s="39"/>
+      <c r="A3" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>46</v>
+      </c>
       <c r="C3" s="37"/>
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
@@ -5448,16 +5561,20 @@
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
       <c r="I3" s="36"/>
-      <c r="J3" s="123">
+      <c r="J3" s="122">
         <f>SUM(D2:D100)</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
+        <v>2</v>
+      </c>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
     </row>
     <row r="4" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>4</v>
+      </c>
       <c r="C4" s="37"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -5467,8 +5584,12 @@
       <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="39"/>
+      <c r="A5" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>107</v>
+      </c>
       <c r="C5" s="37"/>
       <c r="D5" s="35"/>
       <c r="E5" s="35"/>
@@ -5478,8 +5599,12 @@
       <c r="I5" s="36"/>
     </row>
     <row r="6" spans="1:12" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>5</v>
+      </c>
       <c r="C6" s="37"/>
       <c r="D6" s="35"/>
       <c r="E6" s="35"/>
@@ -5489,7 +5614,7 @@
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="39"/>
       <c r="C7" s="37"/>
       <c r="D7" s="35"/>
@@ -5511,7 +5636,7 @@
       <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:12" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="39"/>
       <c r="C9" s="37"/>
       <c r="D9" s="35"/>
@@ -5679,6 +5804,7 @@
     <mergeCell ref="J1:L2"/>
     <mergeCell ref="J3:L3"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C2:I100">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
@@ -5738,11 +5864,11 @@
       <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="122" t="s">
+      <c r="J1" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
     </row>
     <row r="2" spans="1:12" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42"/>
@@ -5754,9 +5880,9 @@
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
       <c r="I2" s="36"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
     </row>
     <row r="3" spans="1:12" ht="54.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42"/>
@@ -5768,12 +5894,12 @@
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
       <c r="I3" s="36"/>
-      <c r="J3" s="123">
+      <c r="J3" s="122">
         <f>SUM(D2:D100)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
     </row>
     <row r="4" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42"/>
@@ -6058,11 +6184,11 @@
       <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="122" t="s">
+      <c r="J1" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
     </row>
     <row r="2" spans="1:12" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42"/>
@@ -6074,9 +6200,9 @@
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
       <c r="I2" s="36"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
     </row>
     <row r="3" spans="1:12" ht="54.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42"/>
@@ -6088,12 +6214,12 @@
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
       <c r="I3" s="36"/>
-      <c r="J3" s="123">
+      <c r="J3" s="122">
         <f>SUM(D2:D100)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
     </row>
     <row r="4" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42"/>
@@ -6378,11 +6504,11 @@
       <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="122" t="s">
+      <c r="J1" s="121" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
     </row>
     <row r="2" spans="1:12" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42"/>
@@ -6394,9 +6520,9 @@
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
       <c r="I2" s="36"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
     </row>
     <row r="3" spans="1:12" ht="54.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42"/>
@@ -6408,12 +6534,12 @@
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
       <c r="I3" s="36"/>
-      <c r="J3" s="123">
+      <c r="J3" s="122">
         <f>SUM(D2:D100)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
     </row>
     <row r="4" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42"/>

--- a/Sprints/Buchberger.xlsx
+++ b/Sprints/Buchberger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\BooklessDocs\Sprints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C61B466-3B0A-41D6-BED0-286D5B843011}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B096D98F-0372-4D1D-A9CD-62F0EC497C83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="29448" windowHeight="17496" activeTab="5" xr2:uid="{86214E96-66BA-481E-AE89-B5FD40226654}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="29448" windowHeight="17496" xr2:uid="{86214E96-66BA-481E-AE89-B5FD40226654}"/>
   </bookViews>
   <sheets>
     <sheet name="Einleitung" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="164">
   <si>
     <t>Todo Stuff</t>
   </si>
@@ -512,6 +512,21 @@
   </si>
   <si>
     <t>Transformdialog all the Transformation</t>
+  </si>
+  <si>
+    <t>Make the sidenav toggle able</t>
+  </si>
+  <si>
+    <t>Redesign the Dashboard after sidenav toggle</t>
+  </si>
+  <si>
+    <t>Toggeling the sidenav in side another component is so unbelieveable complicated, had so many trouble with null injectors and circular dependencies after creating a OWN service for toggeling calling a single method and a lot of tries it works. Will check the test the code a bit more</t>
+  </si>
+  <si>
+    <t>Wp7</t>
+  </si>
+  <si>
+    <t>Changed the Dashboard Page as the screenshots next to this description shows. This is not the final design currently working on it. But I found a problem the sidenav is only available in the app not in the setting or the profile component</t>
   </si>
 </sst>
 </file>
@@ -1136,6 +1151,126 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1151,15 +1286,6 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1169,15 +1295,6 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1208,113 +1325,11 @@
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -1576,6 +1591,55 @@
         <a:xfrm>
           <a:off x="11923568" y="19705811"/>
           <a:ext cx="9650828" cy="3028174"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1333500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>343631</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C55481A1-A4DC-4B15-9D1B-DACA00526724}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11277600" y="2609850"/>
+          <a:ext cx="3296381" cy="1962150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1886,69 +1950,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C622B4-4D73-4F9B-A631-EF311F7571B6}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:16" ht="39" x14ac:dyDescent="0.3">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="102"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="86"/>
       <c r="I1" s="7"/>
-      <c r="J1" s="100" t="s">
+      <c r="J1" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="102"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="86"/>
     </row>
     <row r="2" spans="1:16" ht="39" x14ac:dyDescent="0.3">
-      <c r="A2" s="103"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="105"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="105"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="89"/>
     </row>
     <row r="3" spans="1:16" ht="39.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="106"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="108"/>
+      <c r="A3" s="90"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="92"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="105"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="89"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
@@ -1970,22 +2034,22 @@
     </row>
     <row r="5" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="112"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="96"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="13"/>
       <c r="I5" s="5"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="113" t="s">
+      <c r="K5" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="114"/>
-      <c r="M5" s="115"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="99"/>
       <c r="N5" s="33"/>
       <c r="O5" s="33"/>
       <c r="P5" s="13"/>
@@ -1993,10 +2057,10 @@
     <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="117"/>
+      <c r="D6" s="101"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -2021,33 +2085,33 @@
       <c r="H7" s="13"/>
       <c r="I7" s="5"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="94" t="s">
+      <c r="K7" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="96"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="80"/>
       <c r="P7" s="13"/>
     </row>
     <row r="8" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="91"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="13"/>
       <c r="I8" s="5"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="99"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="83"/>
       <c r="P8" s="13"/>
     </row>
     <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2061,23 +2125,23 @@
       <c r="H9" s="13"/>
       <c r="I9" s="5"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="119"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="120"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="104"/>
       <c r="P9" s="13"/>
     </row>
     <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="72"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="69"/>
       <c r="H10" s="14"/>
       <c r="I10" s="15"/>
       <c r="J10" s="11"/>
@@ -2090,20 +2154,20 @@
     </row>
     <row r="11" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="78"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="72"/>
       <c r="H11" s="14"/>
       <c r="I11" s="15"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="89" t="s">
+      <c r="K11" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="90"/>
-      <c r="M11" s="91"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="75"/>
       <c r="N11" s="33"/>
       <c r="O11" s="33"/>
       <c r="P11" s="13"/>
@@ -2128,10 +2192,10 @@
     </row>
     <row r="13" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="93"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -2139,13 +2203,13 @@
       <c r="H13" s="17"/>
       <c r="I13" s="18"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="94" t="s">
+      <c r="K13" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="96"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="80"/>
       <c r="P13" s="13"/>
     </row>
     <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2159,23 +2223,23 @@
       <c r="H14" s="17"/>
       <c r="I14" s="18"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="99"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="83"/>
       <c r="P14" s="13"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="72"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="69"/>
       <c r="H15" s="21"/>
       <c r="I15" s="22"/>
       <c r="J15" s="11"/>
@@ -2190,12 +2254,12 @@
     </row>
     <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="75"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="112"/>
       <c r="H16" s="21"/>
       <c r="I16" s="22"/>
       <c r="J16" s="11"/>
@@ -2210,12 +2274,12 @@
     </row>
     <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="75"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="112"/>
       <c r="H17" s="29"/>
       <c r="I17" s="30"/>
       <c r="J17" s="26"/>
@@ -2228,12 +2292,12 @@
     </row>
     <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="75"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="112"/>
       <c r="H18" s="21"/>
       <c r="I18" s="22"/>
       <c r="J18" s="5"/>
@@ -2246,12 +2310,12 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="75"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="112"/>
       <c r="H19" s="21"/>
       <c r="I19" s="22"/>
       <c r="J19" s="8"/>
@@ -2264,12 +2328,12 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="75"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="112"/>
       <c r="H20" s="21"/>
       <c r="I20" s="22"/>
       <c r="J20" s="11"/>
@@ -2282,12 +2346,12 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="75"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="112"/>
       <c r="H21" s="21"/>
       <c r="I21" s="22"/>
       <c r="J21" s="11"/>
@@ -2300,25 +2364,25 @@
     </row>
     <row r="22" spans="1:16" ht="14.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="78"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="72"/>
       <c r="H22" s="21"/>
       <c r="I22" s="22"/>
-      <c r="J22" s="87">
+      <c r="J22" s="121">
         <f>SUM(Sprint3!J3)+SUM(Sprint4!J3)+SUM(Sprint5!J3)+SUM(Sprint6!J3)+SUM(Sprint7!J3)+SUM(Sprint8!J3)+SUM(Sprint9!J3)+SUM(Sprint10!J3)+SUM(Sprint11!J3)+'Sprint1&amp;2'!J3</f>
-        <v>272</v>
-      </c>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="K22" s="122"/>
+      <c r="L22" s="122"/>
+      <c r="M22" s="105" t="s">
         <v>137</v>
       </c>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
+      <c r="N22" s="106"/>
+      <c r="O22" s="106"/>
       <c r="P22" s="13"/>
     </row>
     <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2331,34 +2395,34 @@
       <c r="G23" s="32"/>
       <c r="H23" s="21"/>
       <c r="I23" s="22"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="88"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
+      <c r="J23" s="121"/>
+      <c r="K23" s="122"/>
+      <c r="L23" s="122"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="106"/>
+      <c r="O23" s="106"/>
       <c r="P23" s="13"/>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
-      <c r="B24" s="85" t="s">
+      <c r="B24" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="86"/>
+      <c r="C24" s="120"/>
       <c r="D24" s="31"/>
       <c r="E24" s="31"/>
       <c r="F24" s="31"/>
       <c r="G24" s="31"/>
       <c r="H24" s="21"/>
       <c r="I24" s="22"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="67" t="s">
+      <c r="J24" s="121"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="122"/>
+      <c r="M24" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="108"/>
       <c r="P24" s="13"/>
     </row>
     <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2371,42 +2435,42 @@
       <c r="G25" s="31"/>
       <c r="H25" s="21"/>
       <c r="I25" s="22"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
+      <c r="J25" s="121"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="122"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="106"/>
       <c r="P25" s="13"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
-      <c r="B26" s="79" t="s">
+      <c r="B26" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="81"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="115"/>
       <c r="H26" s="21"/>
       <c r="I26" s="22"/>
       <c r="J26" s="11"/>
       <c r="K26" s="33"/>
       <c r="L26" s="33"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
+      <c r="M26" s="109"/>
+      <c r="N26" s="109"/>
+      <c r="O26" s="109"/>
       <c r="P26" s="13"/>
     </row>
     <row r="27" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="84"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="118"/>
       <c r="H27" s="21"/>
       <c r="I27" s="22"/>
       <c r="J27" s="11"/>
@@ -2437,6 +2501,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="M22:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O26"/>
+    <mergeCell ref="B15:G22"/>
+    <mergeCell ref="B26:G27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="J22:L25"/>
     <mergeCell ref="B10:G11"/>
     <mergeCell ref="K11:M11"/>
     <mergeCell ref="B13:C13"/>
@@ -2448,13 +2519,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="K7:O9"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="M22:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O26"/>
-    <mergeCell ref="B15:G22"/>
-    <mergeCell ref="B26:G27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="J22:L25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K16" r:id="rId1" xr:uid="{56696194-2AF1-44D1-8DDD-744124A45C2E}"/>
@@ -2510,11 +2574,11 @@
       <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
     </row>
     <row r="2" spans="1:12" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42"/>
@@ -2526,9 +2590,9 @@
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
       <c r="I2" s="36"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
     </row>
     <row r="3" spans="1:12" ht="54.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42"/>
@@ -2540,12 +2604,12 @@
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
       <c r="I3" s="36"/>
-      <c r="J3" s="122">
+      <c r="J3" s="124">
         <f>SUM(D2:D100)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
     </row>
     <row r="4" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42"/>
@@ -2881,11 +2945,11 @@
       <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
     </row>
     <row r="2" spans="1:12" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="54" t="s">
@@ -2915,9 +2979,9 @@
       <c r="I2" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
     </row>
     <row r="3" spans="1:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="54" t="s">
@@ -2947,12 +3011,12 @@
       <c r="I3" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="122">
+      <c r="J3" s="124">
         <f>SUM(D2:D100)</f>
         <v>88</v>
       </c>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
     </row>
     <row r="4" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="63" t="s">
@@ -4442,11 +4506,11 @@
       <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
     </row>
     <row r="2" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
@@ -4476,9 +4540,9 @@
       <c r="I2" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
     </row>
     <row r="3" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
@@ -4508,12 +4572,12 @@
       <c r="I3" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="122">
+      <c r="J3" s="124">
         <f>SUM(D2:D100)</f>
         <v>21</v>
       </c>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
     </row>
     <row r="4" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="61" t="s">
@@ -4901,11 +4965,11 @@
       <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
     </row>
     <row r="2" spans="1:12" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
@@ -4935,9 +4999,9 @@
       <c r="I2" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
     </row>
     <row r="3" spans="1:12" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
@@ -4967,12 +5031,12 @@
       <c r="I3" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="J3" s="122">
+      <c r="J3" s="124">
         <f>SUM(D2:D100)</f>
         <v>41</v>
       </c>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
     </row>
     <row r="4" spans="1:12" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
@@ -4999,7 +5063,7 @@
       <c r="H4" s="60">
         <v>0</v>
       </c>
-      <c r="I4" s="123" t="s">
+      <c r="I4" s="65" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5028,7 +5092,7 @@
       <c r="H5" s="58">
         <v>0</v>
       </c>
-      <c r="I5" s="124" t="s">
+      <c r="I5" s="66" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5465,8 +5529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405DE563-A71A-4872-98C4-C931E4E8F98C}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5509,11 +5573,11 @@
       <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
     </row>
     <row r="2" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
@@ -5522,14 +5586,14 @@
       <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="59">
+        <v>44245</v>
+      </c>
+      <c r="D2" s="35">
+        <v>2</v>
+      </c>
+      <c r="E2" s="37" t="s">
         <v>48</v>
-      </c>
-      <c r="D2" s="35">
-        <v>2</v>
-      </c>
-      <c r="E2" s="35">
-        <v>2</v>
       </c>
       <c r="F2" s="35">
         <v>2</v>
@@ -5543,30 +5607,44 @@
       <c r="I2" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-    </row>
-    <row r="3" spans="1:12" ht="54.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+    </row>
+    <row r="3" spans="1:12" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>155</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="122">
+      <c r="C3" s="57">
+        <v>44246</v>
+      </c>
+      <c r="D3" s="35">
+        <v>4</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="35">
+        <v>1</v>
+      </c>
+      <c r="G3" s="35">
+        <v>4</v>
+      </c>
+      <c r="H3" s="35">
+        <v>1</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="J3" s="124">
         <f>SUM(D2:D100)</f>
-        <v>2</v>
-      </c>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
+        <v>9</v>
+      </c>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
     </row>
     <row r="4" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
@@ -5575,13 +5653,27 @@
       <c r="B4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36"/>
+      <c r="C4" s="59">
+        <v>44247</v>
+      </c>
+      <c r="D4" s="35">
+        <v>3</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="35">
+        <v>8</v>
+      </c>
+      <c r="G4" s="35">
+        <v>8</v>
+      </c>
+      <c r="H4" s="35">
+        <v>5</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="43" t="s">
@@ -5614,8 +5706,12 @@
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
-      <c r="B7" s="39"/>
+      <c r="A7" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>34</v>
+      </c>
       <c r="C7" s="37"/>
       <c r="D7" s="35"/>
       <c r="E7" s="35"/>
@@ -5625,8 +5721,12 @@
       <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:12" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
-      <c r="B8" s="39"/>
+      <c r="A8" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>35</v>
+      </c>
       <c r="C8" s="37"/>
       <c r="D8" s="35"/>
       <c r="E8" s="35"/>
@@ -5805,7 +5905,7 @@
     <mergeCell ref="J3:L3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C2:I100">
+  <conditionalFormatting sqref="C5:I100 D2:I4">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -5814,6 +5914,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5864,11 +5965,11 @@
       <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
     </row>
     <row r="2" spans="1:12" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42"/>
@@ -5880,9 +5981,9 @@
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
       <c r="I2" s="36"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
     </row>
     <row r="3" spans="1:12" ht="54.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42"/>
@@ -5894,12 +5995,12 @@
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
       <c r="I3" s="36"/>
-      <c r="J3" s="122">
+      <c r="J3" s="124">
         <f>SUM(D2:D100)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
     </row>
     <row r="4" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42"/>
@@ -6184,11 +6285,11 @@
       <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
     </row>
     <row r="2" spans="1:12" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42"/>
@@ -6200,9 +6301,9 @@
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
       <c r="I2" s="36"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
     </row>
     <row r="3" spans="1:12" ht="54.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42"/>
@@ -6214,12 +6315,12 @@
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
       <c r="I3" s="36"/>
-      <c r="J3" s="122">
+      <c r="J3" s="124">
         <f>SUM(D2:D100)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
     </row>
     <row r="4" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42"/>
@@ -6504,11 +6605,11 @@
       <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
     </row>
     <row r="2" spans="1:12" ht="27.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42"/>
@@ -6520,9 +6621,9 @@
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
       <c r="I2" s="36"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
     </row>
     <row r="3" spans="1:12" ht="54.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42"/>
@@ -6534,12 +6635,12 @@
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
       <c r="I3" s="36"/>
-      <c r="J3" s="122">
+      <c r="J3" s="124">
         <f>SUM(D2:D100)</f>
         <v>0</v>
       </c>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
     </row>
     <row r="4" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42"/>
